--- a/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
@@ -12,45 +12,1383 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEbrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEturquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEyellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgrey</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+  <si>
+    <t xml:space="preserve">entrezgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VWA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOCD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIVEP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRDX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST6GALNAC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGSF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXNIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S100A16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CADM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUCKS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNIH3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1orf198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NID1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDIT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFBP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYOF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDLIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARVELD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">259217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA12A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">642938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSYN2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKI67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RRM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTATIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHNAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCR7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSS23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAGLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDX6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METTL7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMTC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP2B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSC22D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRMT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMOC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRXN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHNAK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNSTRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUSAP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANXA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCLAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSBG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF12A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUPR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CX3CL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBNDD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AURKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNHG29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAVIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NDUFAF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRSF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNRIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRACDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONRF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYPD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMNL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3H15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPATS2L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2orf80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYGB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL9A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNQ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHODL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSCAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL18A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPD1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAP43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MGLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST6GAL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM43A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNIP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDGFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGFBP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARCL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2AZ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCUB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUCY1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPY5R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HMGB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNAH5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC1A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102467080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">728723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOBTB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMNB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF20A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHB16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK32A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTTG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NKAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMIM29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHSL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6KA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDCA7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPNMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALNT17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTK2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESCO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LYPLA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COX6C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATAD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXO32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSIP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIBAN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100189191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCEAL9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENM1</t>
   </si>
 </sst>
 </file>
@@ -398,141 +1736,4706 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.340498332720885</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000994756768620747</v>
+        <v>1.08928441719414</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.00984720900461586</v>
+        <v>0.0000000000030755619585691</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.728509722414695</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00000333599035394264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.282060002144128</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000373510779754585</v>
+        <v>2.63159077268434</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0583850403855207</v>
+        <v>0.00000014173161293453</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251870254721498</v>
+        <v>1.46092388735652</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0166873602263412</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.335238420284224</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00226063238421391</v>
+        <v>-0.813103841713989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00237580463541258</v>
+        <v>0.0000000000684185306025681</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>-0.404731647671708</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000161755023725134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.324107753773705</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00223968161882824</v>
+        <v>1.54103296433413</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00836777778959031</v>
+        <v>0.0000130613882615555</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.954562014702849</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0476919787375989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.110397673630925</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00799976386361711</v>
+        <v>0.383781538699366</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0695185359643268</v>
+        <v>0.0496552787356798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0000768263657240883</v>
+        <v>0.334122754543546</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0267319965204936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0169626307391363</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.386142101208013</v>
+        <v>0.840619276185217</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00410987508847317</v>
+        <v>0.00569121982484338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.110136211763063</v>
+        <v>0.773164743039742</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000899141608185047</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.296176729094664</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00848666699623866</v>
+        <v>-1.47163313433278</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.00579250792164801</v>
+        <v>0.00000377488142467177</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>-1.27535655647513</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000000655385389737292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.187044588477336</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>-0.576105737633835</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0406494690978892</v>
+        <v>0.00000000144001536729463</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>-0.428249201382984</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000000751550843191275</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.80224909041358</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0000000000000105460676950043</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.53527697098677</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00000000000000000000958129834973554</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.785616365088761</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000000000170933643291618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.41149434167996</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0000115955430595963</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.3768822944369</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00152505112625766</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.82739333647714</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.000000000510545259782062</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.34577751632854</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000159537602089502</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.01021301542407</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0000965053600960849</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.453442158554057</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.000973092315706691</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.302012082092884</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.00949204554736326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.84338386544102</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000958547880471509</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.547354239776292</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00698931888335859</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.38101058102246</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0000407142936090655</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.14732122586531</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000000468638725255432</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.891962646610536</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00000000109371678633334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.331780530668357</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0417275773720033</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.760656520676429</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.000000000000146707810491054</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.426227164594997</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.000000872599929573605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.02607305468173</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0015109298978114</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.07775681709175</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0358312518586766</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.812767103026426</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00640027812102169</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.600224204669357</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0274067788233322</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.852530893916112</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0394967100727478</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.884600203079401</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.000861082853557118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.18570479043578</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0000000403209155856782</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.02575199895665</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.000000124814221043916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.32328310974284</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0000000000266410507586493</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.560984651881588</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0231307532967845</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.483591028884231</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00000232919561917312</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.291309815346387</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00145163802117667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.1466948926681</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.000000000000326662900557624</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.45485838395852</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.000223860937158671</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.06909778366</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00432598599756384</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.06256508814287</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.000480623435675735</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.548439375452224</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0352761006048313</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.51582030347437</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0246507568957219</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.51293480852131</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.00212423551042746</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.01160040152338</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0230995952209655</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.00555660361987</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.000575734426934585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.18380116321102</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0106197538211787</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.711106187789954</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.000000000000000000044104658858451</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.179865588244588</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.008451416904827</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.05575310473924</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.00349058897817712</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.845057078905152</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0219876396243048</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.23844765986432</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0157794832388103</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.07581687211291</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.0364162348639396</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="n">
+        <v>1.82453164700794</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000409103868612929</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.55049838688594</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.00137619590654948</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.02342701270776</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.000137196672225606</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.650957931253512</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0372912513514868</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.624398829406994</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.000272143239490483</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.462985124076401</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.00452729778468933</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.71459254413189</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0332928837912115</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.0874493784212</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.00145681250897868</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.10013368077793</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000735496161203828</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.10043068522896</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.00000287046467153993</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.843171201661646</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0132663699057002</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.651710465028198</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0331525399457176</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.533112971451154</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0000164554268017223</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.337169615589039</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.00110839353543524</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.1779903234927</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.00148130129898094</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.771893603629869</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.0364162348639396</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.84214626858382</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00337029525361571</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.61934680558075</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0229234410084299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.402764174507053</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.0401593377655264</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.777728531783558</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.000000000660591618231898</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.01231109961742</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.00000144215172687571</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.589385720981994</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.00581946817681849</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.26352889468659</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.00000000000000000000000000372876741559398</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.329593690656454</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0098157680669459</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.881631373314876</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0115347998913309</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-1.04014308932955</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.000190854632190607</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-2.35671175705748</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.000000207913243823139</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-2.71315795728423</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00000000000000000000125465327387776</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.93330953757493</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0169022697568512</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.00193035567187</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.000565576039304329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.918108386194126</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0101950824276349</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.814783507307278</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.00256455730721109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.45917084256016</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.000000000000000933817868686687</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.16833188137655</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.00000000000000121013034120113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.58518679581872</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.00000000154404977436489</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.916908025166018</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.000476823943562977</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.730751049453703</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.000318817697857537</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.396040077298443</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0300185878619499</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.72463071542745</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0248113668706901</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.51542687942968</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0467575687077631</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.879868399965617</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0196072833781589</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.900449150272419</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.000376189928449739</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.11737703628906</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.00000000000347693878968172</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.593180806124343</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.000108894955249208</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.654314375414445</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.000000000000198380040959088</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.342086506194308</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.000000060181069655876</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.46170544989754</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0216696864017058</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0.369440799866439</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.00553740888713623</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.647951884503316</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.015635919021857</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.18871139877653</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0000000000011193521129693</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.55996023107663</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.00000000000302055348623571</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.718273247711102</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00225554617027366</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.901907226311854</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0000000000000000000000000000000000000038515922173056</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.25409672928718</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0000119694643715975</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.644924662416583</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0000407624347217166</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.591843775234125</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.000000186601309671427</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.671934634113065</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0000384416042993118</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.361560477497861</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0126255973346927</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-1.61353762828816</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.00000601442654658031</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.05449249871296</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.000172484468029054</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.787837237659042</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.00147472374973634</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.606195623567475</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.000480873474079898</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.764062143174404</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.000406236909169768</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.582074589619065</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.00793610363866695</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.728527406761444</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.000000000000000596694359388287</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.321551715459858</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000000619421144650706</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.561351695447831</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.000512357599591691</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.663504873107045</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0000000000116307290266291</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.41017326145345</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0000243054233173475</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.298494365493359</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.000487285070926196</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68"/>
+      <c r="C68" t="n">
+        <v>1.92788872524745</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.00000017413414767954</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.91786562652284</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0000000000196894148834635</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.03069933534262</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0398881588440084</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.910439778802204</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0397612056808152</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.682435550365286</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0000970383177919023</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.383173907023966</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00682368769649455</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.38113823235247</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.00000190967821423748</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.736298473473887</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.000061205399344094</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.72010187674731</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.000000153655043168391</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.359799330714694</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.000969935447749463</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-1.71747721335534</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0000219298292958374</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-1.08770585021454</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.000809351501622045</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.62463089566863</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.000000000000000000000635374455962663</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.19181194592285</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00000000000000393118180549347</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.22989812084598</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.000110082905390039</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.65773061697688</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0000000000000164272440556552</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.16169926262256</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.00379346710533149</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2.09774919325876</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.00171782730756231</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-1.32135902532388</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0037687295386133</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.817013662983479</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0417275773720033</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.36823931451565</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.00000181931355223653</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.519308459575497</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00870228084939797</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.652519568198265</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0347495171342309</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.04163663784871</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.0000000000075943443859216</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.396419695899786</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.000197514760890777</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.299551710642943</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0105644672253393</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.516354931262688</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.0218932137095514</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.471314129019237</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.00185839793921261</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-1.61925030779237</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.000661924377098309</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-1.09186056390506</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.00317805373348315</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.45820382044547</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0000000763674463771876</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.856286855997677</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.000993826703019079</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.691021748636938</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0126557253343416</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.592297728306709</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0304142305918935</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-0.745408887480819</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0173814384777584</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-0.507005182103892</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0488239804621552</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.61795623059956</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.000000000000000000000257014971187137</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.727323470650767</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000000528381425419083</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.705339373063009</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0000811402585560371</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.728522307037305</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0000000360630653035433</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.40590522495291</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.0000000000000000000437394512221307</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.955440143979727</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.000000000000000634895822580416</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.754635366322775</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0000760757422479326</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-0.496601418250795</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.00706043892457016</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.36125452706909</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.00000000000187074530423607</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.06579750406831</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.02418253103235</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.870399666086026</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.00000000344081108962079</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.422111344292014</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0064871950545898</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.895455844968592</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.00151204185584155</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.551956635282199</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0195541038780887</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-4.61676058910464</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.00000182247226631938</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-2.11721219657969</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.00211218127974877</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.799203815746673</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.00000000140092105182581</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.470064991279521</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.00000167298383172894</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.92058739859893</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0000000000000000000000025656132593978</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.677224316521175</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00110839353543524</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.23996857640493</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.00228745193651043</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.19636932416992</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00163231955983907</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.48546129242272</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.00000000000261875016830681</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.655848875950744</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.00666924821973664</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98" t="n">
+        <v>-0.786229998589133</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.000191133683443576</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.418747053798043</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.00767073717173775</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.557232016113231</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.00310819615130511</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.480281308044948</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00167051077309295</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.533126155190633</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.00656590487496526</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.28359376793836</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.0247592862110904</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.972190313664611</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.00000000001993781182157</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.823917513346295</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0000000000000012229266688564</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.06117242841588</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.000112508731155037</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.618591949855618</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0465652851420518</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.06907622123028</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.00000000000000000000000000000155329287245782</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.260478286099988</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.00464157621004751</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-0.952099966747111</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.00000268449951715995</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.578396534436216</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.000660899853815271</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-0.944592168317375</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.0468496630374787</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-0.841287653065355</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.0412506132474099</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106" t="n">
+        <v>0.556975210419051</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0000322872697337544</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.37964998247831</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.00417545391661352</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-1.27814793437793</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.000457282641783975</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.741604628586714</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.00086069214763763</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.849426920153052</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.00000000000440020859310611</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.347353164724865</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.00812201926921258</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.324560250540126</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.00232157735014917</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.250952662823224</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0133858525533168</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.247827216770566</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.0266633628310146</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.319486695476355</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.0000000550270326133466</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111" t="n">
+        <v>-1.69739697662122</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.00166072132879712</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-0.965580832473735</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.00864936118137403</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.48143729062434</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.00995867746441651</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.809219473855843</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0358312518586766</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-1.16398814556496</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.00399811878985568</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.912616816885827</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0198359901074725</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" t="s">
+        <v>226</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.55631027264101</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.000000000205242785725116</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.969974673747729</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.000247593523670168</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.77370137620806</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.0000000000000000000000025656132593978</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.911070119307155</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0000000296891613786259</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.03680595448064</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.000000000000000000069144164770616</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.23796420543465</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0000000000717124340943271</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-2.75197276194969</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.000503878923810884</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.14414532656685</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.000299482483410634</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.50175240018345</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.00000000307468731603541</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.11347303179205</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00000497653643323612</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" t="n">
+        <v>0.798810940908836</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0003681655444502</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.517809178684838</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.032886625360897</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-3.21610229703288</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.000000502216713182364</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-3.38620327192694</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.00000000093597647587797</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121" t="n">
+        <v>0.997382881577749</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.00000000328170525313961</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.80682472351212</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.0000000550270326133466</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.53081116583342</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0177050904150485</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.488524127059369</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0302738131395644</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123" t="n">
+        <v>-0.51313596356653</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.000236499715346015</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-0.41342675758448</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0000637279895857097</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-6.6989983593602</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0012056160183537</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-5.22620007756513</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00225554617027366</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.79242296037283</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.00376312279603059</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-1.11439421757001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.00384775081068589</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>246</v>
+      </c>
+      <c r="B126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.55138327642676</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.000904828365412933</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.50508619270683</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.00000524453523290112</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.806265884972554</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.00101676093568788</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.61434451922211</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0106197538211787</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>250</v>
+      </c>
+      <c r="B128" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-1.19844606383129</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0124892636717974</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-1.04001797603607</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.00665538758393843</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-1.26062320390223</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0459659632532274</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-1.61742728454344</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.00928933041219473</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" t="s">
+        <v>255</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.839015532906611</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0000000168789876163152</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.568799827341137</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.0000136151419337884</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-0.606061358732801</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0114438373081919</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-0.432672074768428</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0365328885538169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.404318294530763</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.0413121143531502</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.523444074764291</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.000720359586695638</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-0.685772071726116</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0000314183781872047</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-0.399803721019595</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.00401457490046996</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-2.40691288169452</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0332991484022526</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-1.53771279733987</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0112194812124938</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.926152393628429</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.00432598599756384</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.666294687318806</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0250778510577533</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.37258840796812</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.00000000000822215850272252</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.850406114392375</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.000026903883985871</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.07177814243926</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.000000127334630027639</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.60807278382319</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.0245603431164641</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.32445182974367</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.000928785999364787</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.795933905295374</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0052863846715719</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.576342432814563</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.0000489452403814802</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.283649665656789</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.00771856880669948</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.612222874335574</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.00201755517335335</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.617949938536701</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0000319169502827024</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-2.80270999699894</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.000536151813435707</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.53363908923986</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0206719330233794</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142"/>
+      <c r="C142" t="n">
+        <v>0.934162966980198</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0000178101276304051</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.587612714666399</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0149365887526143</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143"/>
+      <c r="C143" t="n">
+        <v>-1.56779012038351</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.0079820743153788</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-1.18808116989083</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0448135862096443</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>280</v>
+      </c>
+      <c r="B144" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.57718125028347</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.000735496161203828</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.1020644174626</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.0000000000281004620840538</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>282</v>
+      </c>
+      <c r="B145" t="s">
+        <v>283</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.318603771145</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.000000237195418170751</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.808989656142554</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00665538758393843</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>284</v>
+      </c>
+      <c r="B146" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.510656821523651</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0000100990316959784</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.323109535076201</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.00879651012919315</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>286</v>
+      </c>
+      <c r="B147"/>
+      <c r="C147" t="n">
+        <v>1.12179275874267</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.000000000000940414647984179</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.542608258407597</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.000957156523965185</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>287</v>
+      </c>
+      <c r="B148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-1.05076196267923</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.00000000000203905364449338</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.493848618624571</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0000100894621161592</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" t="s">
+        <v>290</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-1.66728361686722</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.000868635958352999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>-1.25313627419767</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.000899141608185047</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" t="s">
+        <v>292</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-1.14605088013778</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.0135066896786147</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-1.30620174977929</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0109728340903441</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>293</v>
+      </c>
+      <c r="B151" t="s">
+        <v>294</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.786909702893149</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.0000000424532048334626</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.543539970077727</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0000047869790265444</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>295</v>
+      </c>
+      <c r="B152" t="s">
+        <v>296</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.63644122476545</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000224303785297793</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.07989778521193</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0000000000000000000000000000000117611857074979</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>297</v>
+      </c>
+      <c r="B153" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.920820240594251</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.0000482722989689812</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.612469685602433</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.00890719381773695</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>299</v>
+      </c>
+      <c r="B154" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.467606466939365</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.0206575781926104</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-0.746561819560124</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.000000222978770047788</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>301</v>
+      </c>
+      <c r="B155"/>
+      <c r="C155" t="n">
+        <v>3.07245695931006</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.0329984012939357</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.50224154347694</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.00131311401201024</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>302</v>
+      </c>
+      <c r="B156" t="s">
+        <v>303</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-1.33104134106488</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.000000000000162692710591802</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-0.580103216328768</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.00129322315797484</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>304</v>
+      </c>
+      <c r="B157" t="s">
+        <v>305</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.68692913479642</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.0329984012939357</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.7578236068084</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.00213543861205674</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-4.28512643123513</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.016468000597223</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-7.14147975807253</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.00047170640180761</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.75999878479781</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.0000897009523991964</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.26401331365926</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.00529585606990391</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>310</v>
+      </c>
+      <c r="B160" t="s">
+        <v>311</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-1.98620630506794</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.00176069746422757</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-1.93882936968677</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.00652602064958041</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>312</v>
+      </c>
+      <c r="B161" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.905363192563443</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.0159322591312191</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-0.937537678747883</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0000655325261077908</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>314</v>
+      </c>
+      <c r="B162" t="s">
+        <v>315</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-2.12311522202931</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.000074298849785531</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-1.28533025643183</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.0336781165950158</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-2.60260349922314</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.00618586265177153</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-1.58282580831758</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0201390757105818</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" t="s">
+        <v>319</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.95516160971716</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.000000038798203420809</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-0.438560275170133</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.000497143853141144</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>320</v>
+      </c>
+      <c r="B165" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.48583054453116</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.00000000000000000104359792094804</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.82783452194511</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000174788949194094</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>322</v>
+      </c>
+      <c r="B166" t="s">
+        <v>323</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.405074932429483</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.000202639036162878</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.700874026549663</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.000000000000000000000000000237224121437149</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" t="s">
+        <v>325</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.17657233754758</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.000000000574910627002003</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.15138720268036</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.000000000000000391875905858928</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>326</v>
+      </c>
+      <c r="B168" t="s">
+        <v>327</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.706487783659372</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.000000162125509947097</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-0.499366479812674</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.00001898985378563</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>328</v>
+      </c>
+      <c r="B169" t="s">
+        <v>329</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-2.17558547813628</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.000000000000000000127581313405565</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.572435298967381</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.00465844854551239</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>330</v>
+      </c>
+      <c r="B170" t="s">
+        <v>331</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-0.828933869682563</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.00511068868531696</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-0.641935953687537</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.00116642184835098</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-1.93329278297424</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0107733329365903</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-1.34672862759765</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0187355845233861</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>334</v>
+      </c>
+      <c r="B172" t="s">
+        <v>335</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-1.20887623313494</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.0380417383848276</v>
+      </c>
+      <c r="E172" t="n">
+        <v>-1.327981491118</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.00109529473085012</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>336</v>
+      </c>
+      <c r="B173" t="s">
+        <v>337</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-1.45130063021784</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.000000114085385653548</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-0.587243968778045</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.0001763411636185</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" t="s">
+        <v>339</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-2.53440660661665</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.000000000000202689064693745</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-0.555390166332223</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.0243282407528135</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>340</v>
+      </c>
+      <c r="B175" t="s">
+        <v>341</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.81652421168836</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.0363663492500052</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.65333635475166</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.0452512617305857</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>342</v>
+      </c>
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.706672926106514</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.00819976075016854</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.562936518308902</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.00752482856163701</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>344</v>
+      </c>
+      <c r="B177" t="s">
+        <v>345</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.512803144503841</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.000000389067442835825</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-0.389936698582543</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0000005506825549671</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>346</v>
+      </c>
+      <c r="B178"/>
+      <c r="C178" t="n">
+        <v>-2.20946264294322</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.0447041675238676</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-2.77736766342306</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.00441287855567727</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>347</v>
+      </c>
+      <c r="B179"/>
+      <c r="C179" t="n">
+        <v>7.33325286074196</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.00094309770201988</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.38533314504582</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0215055368287961</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>348</v>
+      </c>
+      <c r="B180" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-0.42831721815435</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.034174984140913</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.369492232888421</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.000607160378637691</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>350</v>
+      </c>
+      <c r="B181" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-1.23669118234252</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.0000000000589229167956157</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-0.698720856338146</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.00000436596100822403</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-1.33034251658444</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.00613169024952941</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-1.17809168002806</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.00949204554736326</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>354</v>
+      </c>
+      <c r="B183" t="s">
+        <v>355</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-1.3658439866711</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.0000855578703065337</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-1.07502955071312</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.000437642012758771</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>356</v>
+      </c>
+      <c r="B184"/>
+      <c r="C184" t="n">
+        <v>0.722690936329115</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.00185442245095708</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.46475850710899</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.0296754581894369</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185"/>
+      <c r="C185" t="n">
+        <v>1.23508983211086</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.0000053964659371863</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.632248234297519</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0353826506949856</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-1.3028842045336</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.000553059346061241</v>
+      </c>
+      <c r="E186" t="n">
+        <v>-0.786777821716293</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.0140285727864497</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>360</v>
+      </c>
+      <c r="B187" t="s">
+        <v>361</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.733211296433315</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.0000855578703065337</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.67314618022634</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.0000655175130559804</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>362</v>
+      </c>
+      <c r="B188" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.64629175888101</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.00248598872787861</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.29995705280675</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.00682368769649455</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>364</v>
+      </c>
+      <c r="B189" t="s">
+        <v>365</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.743060168340834</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.000000000000000000000000067005252085296</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.61071879841311</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0000000000000000000000826194027152521</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>366</v>
+      </c>
+      <c r="B190" t="s">
+        <v>367</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-0.667941958706433</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.00172306647121307</v>
+      </c>
+      <c r="E190" t="n">
+        <v>-0.533590039823807</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.00000455395351756076</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>368</v>
+      </c>
+      <c r="B191" t="s">
+        <v>369</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.5202451686657</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.0148356830411003</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.426782378591657</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.0394358198262211</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>370</v>
+      </c>
+      <c r="B192" t="s">
+        <v>371</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.83460491939839</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.000304843009498468</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.73403229265072</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.000144131491288761</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>372</v>
+      </c>
+      <c r="B193" t="s">
+        <v>373</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-3.2959812265164</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.00540965289264336</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-1.01643333638682</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.00000230235958779035</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194" t="s">
+        <v>375</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.59413377169993</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.0149932019072613</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.58317555386008</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.000256365611475179</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>376</v>
+      </c>
+      <c r="B195" t="s">
+        <v>377</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.57045356184594</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.00216853372268397</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.53872540761495</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.00278584214793785</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>378</v>
+      </c>
+      <c r="B196" t="s">
+        <v>379</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.942501604210244</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.0001718713328866</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.48211746833137</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.0473845558146092</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>380</v>
+      </c>
+      <c r="B197" t="s">
+        <v>381</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.7453810031369</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000868650404970363</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.892827071246872</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.0000000000000000000000000000000594082244056305</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>382</v>
+      </c>
+      <c r="B198" t="s">
+        <v>383</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.407722562798127</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.0463475753176936</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.438166004528408</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0133689615822188</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>384</v>
+      </c>
+      <c r="B199" t="s">
+        <v>385</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.45924786909848</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.00549369825136163</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.20168067279379</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0272391572537347</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>386</v>
+      </c>
+      <c r="B200" t="s">
+        <v>387</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.84759927596192</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.000000371441115902274</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.474506488983597</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.00465844854551239</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>388</v>
+      </c>
+      <c r="B201" t="s">
+        <v>389</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-0.989868044286002</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0000053964659371863</v>
+      </c>
+      <c r="E201" t="n">
+        <v>-0.613246833772201</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.00168393153710573</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>390</v>
+      </c>
+      <c r="B202" t="s">
+        <v>391</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-0.778062375437841</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.00023524785536785</v>
+      </c>
+      <c r="E202" t="n">
+        <v>-0.503120369643909</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.0164444088316076</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.5160770690351</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.000174838750123764</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.24956760896778</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.000979386928563347</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>394</v>
+      </c>
+      <c r="B204" t="s">
+        <v>395</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-1.66355278982991</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.0000000216092194275925</v>
+      </c>
+      <c r="E204" t="n">
+        <v>-1.3049254700243</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.000000106940268923462</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>396</v>
+      </c>
+      <c r="B205" t="s">
+        <v>397</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.43044104598723</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.00000441813323372375</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.43061989314395</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.0315361030986933</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>398</v>
+      </c>
+      <c r="B206" t="s">
+        <v>399</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.363402587933451</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.0183846184566739</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.507360209228246</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.00000000995805604063615</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>400</v>
+      </c>
+      <c r="B207" t="s">
+        <v>401</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.24765209204083</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.00000000000000902995544493411</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.20306808934333</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0000000000000000018635911416456</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" t="s">
+        <v>403</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.34622284356104</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.00165267317143326</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.325658364169866</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.000000872599929573605</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>404</v>
+      </c>
+      <c r="B209" t="s">
+        <v>405</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.780165737387013</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.0276774690421015</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.80523917524534</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.00203824858087568</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>406</v>
+      </c>
+      <c r="B210" t="s">
+        <v>407</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.82451598474212</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.000271871600077099</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.47687079440055</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.001675617190549</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>408</v>
+      </c>
+      <c r="B211" t="s">
+        <v>409</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.30435362319795</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.000000135613418321446</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.837360949220989</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.000576640339687468</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>410</v>
+      </c>
+      <c r="B212" t="s">
+        <v>411</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.84320736393385</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.000000000000198380040959088</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.04013618213203</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.0000811752832939506</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>412</v>
+      </c>
+      <c r="B213" t="s">
+        <v>413</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.634614368089495</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.00000000000000000284243191106079</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.318894043780034</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.000000000576400112826719</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>414</v>
+      </c>
+      <c r="B214" t="s">
+        <v>415</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-2.33928232923455</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.0215074040293144</v>
+      </c>
+      <c r="E214" t="n">
+        <v>-1.56608683082339</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.000983671347401538</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>416</v>
+      </c>
+      <c r="B215" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.576311887917273</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.000447884426339528</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.454084739267464</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.00149704511295897</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>418</v>
+      </c>
+      <c r="B216" t="s">
+        <v>419</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-1.23028894234219</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0015895676265432</v>
+      </c>
+      <c r="E216" t="n">
+        <v>-0.614256946288612</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.0397612056808152</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>420</v>
+      </c>
+      <c r="B217" t="s">
+        <v>421</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-4.76889234736185</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.0177218255494132</v>
+      </c>
+      <c r="E217" t="n">
+        <v>-4.352525130409</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0183898143720335</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>422</v>
+      </c>
+      <c r="B218" t="s">
+        <v>423</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-1.30109533589928</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.000000000000000000000000000000000000000000000182307020392033</v>
+      </c>
+      <c r="E218" t="n">
+        <v>-0.256302613614924</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.00261394688477121</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>424</v>
+      </c>
+      <c r="B219" t="s">
+        <v>425</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.402803198733884</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.000228820535298453</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.236562033703506</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.00261619995712983</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>426</v>
+      </c>
+      <c r="B220" t="s">
+        <v>427</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-1.31855265860738</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.000648914316273035</v>
+      </c>
+      <c r="E220" t="n">
+        <v>-0.852391621116702</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.0112194812124938</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>428</v>
+      </c>
+      <c r="B221" t="s">
+        <v>429</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.750290080959343</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.0156315387395852</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.913189679575558</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.00000821692113068679</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>430</v>
+      </c>
+      <c r="B222"/>
+      <c r="C222" t="n">
+        <v>1.02080834114595</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.0083373464197644</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.988034820265983</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.00144354681395254</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>431</v>
+      </c>
+      <c r="B223"/>
+      <c r="C223" t="n">
+        <v>0.888435659284865</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.00000493002595016229</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.551325908795829</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.045137212417513</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>432</v>
+      </c>
+      <c r="B224" t="s">
+        <v>433</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-0.756421725299743</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.0000584310414296562</v>
+      </c>
+      <c r="E224" t="n">
+        <v>-0.347870683975628</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.0176761841548847</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>434</v>
+      </c>
+      <c r="B225" t="s">
+        <v>435</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-0.47272939694696</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.000000153655043168391</v>
+      </c>
+      <c r="E225" t="n">
+        <v>-0.195661774768477</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.0283371314598654</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>436</v>
+      </c>
+      <c r="B226"/>
+      <c r="C226" t="n">
+        <v>1.8836544565917</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.000000000000000000422859337469837</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.76906873099228</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.0000000000000000000000000252429399823053</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" t="s">
+        <v>438</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-1.54984038640548</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.000000863520112966828</v>
+      </c>
+      <c r="E227" t="n">
+        <v>-0.749684588173617</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.0126255973346927</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" t="s">
+        <v>440</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.95958964855795</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.0039283626481581</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.853932309970732</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.0000781136690854806</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>441</v>
+      </c>
+      <c r="B229" t="s">
+        <v>442</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.00397420393393</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.000000403870697920385</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.446176212861613</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0157505144631227</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>443</v>
+      </c>
+      <c r="B230" t="s">
+        <v>444</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.01133925856318</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.00000000000000404329366800343</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.368981206076778</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.0064369916970497</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" t="s">
+        <v>446</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.38601697711233</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.000000000000198380040959088</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.778876518725591</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.000026903883985871</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>447</v>
+      </c>
+      <c r="B232"/>
+      <c r="C232" t="n">
+        <v>0.982872102407182</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.000000740971576154429</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.837902550009244</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.00000285573900514244</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>448</v>
+      </c>
+      <c r="B233"/>
+      <c r="C233" t="n">
+        <v>-6.68520296448659</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.0133582360391054</v>
+      </c>
+      <c r="E233" t="n">
+        <v>-5.7268208184713</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0371919550271979</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>449</v>
+      </c>
+      <c r="B234" t="s">
+        <v>450</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.950640605874266</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.000000000000810224981990019</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.398634007157382</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.0000534071654221508</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>451</v>
+      </c>
+      <c r="B235" t="s">
+        <v>452</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.231410426563594</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.0160741739081323</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.241685831520895</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.000162964180273372</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>453</v>
+      </c>
+      <c r="B236" t="s">
+        <v>454</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-0.898945930119844</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.000000173998029963688</v>
+      </c>
+      <c r="E236" t="n">
+        <v>-0.703432757809729</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.0000119694643715975</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>455</v>
+      </c>
+      <c r="B237" t="s">
+        <v>456</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.607045130311452</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.0137784610232724</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.792668107639939</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.000000060181069655876</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>457</v>
+      </c>
+      <c r="B238" t="s">
+        <v>458</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-1.23411581620598</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.000617070846673822</v>
+      </c>
+      <c r="E238" t="n">
+        <v>-1.11532485451114</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.0000202631726362976</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
@@ -1748,16 +1748,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08928441719414</v>
+        <v>1.08928441719412</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0000000000030755619585691</v>
+        <v>0.00000000000307556198006625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.728509722414695</v>
+        <v>0.728509722414716</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00000333599035394264</v>
+        <v>0.00000333599030067697</v>
       </c>
     </row>
     <row r="3">
@@ -1768,16 +1768,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>2.63159077268434</v>
+        <v>2.6315907726842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00000014173161293453</v>
+        <v>0.000000141731613090514</v>
       </c>
       <c r="E3" t="n">
-        <v>1.46092388735652</v>
+        <v>1.46092388735619</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0166873602263412</v>
+        <v>0.0166873602381084</v>
       </c>
     </row>
     <row r="4">
@@ -1788,16 +1788,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.813103841713989</v>
+        <v>-0.813103841713992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0000000000684185306025681</v>
+        <v>0.0000000000684185310930201</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.404731647671708</v>
+        <v>-0.404731647671713</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000161755023725134</v>
+        <v>0.000161755018769919</v>
       </c>
     </row>
     <row r="5">
@@ -1808,16 +1808,16 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1.54103296433413</v>
+        <v>1.54103296433407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000130613882615555</v>
+        <v>0.0000130613882772704</v>
       </c>
       <c r="E5" t="n">
-        <v>0.954562014702849</v>
+        <v>0.954562014702859</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0476919787375989</v>
+        <v>0.0476919787617065</v>
       </c>
     </row>
     <row r="6">
@@ -1828,16 +1828,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.383781538699366</v>
+        <v>0.383781538699332</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0496552787356798</v>
+        <v>0.049655278751788</v>
       </c>
       <c r="E6" t="n">
-        <v>0.334122754543546</v>
+        <v>0.334122754544042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0267319965204936</v>
+        <v>0.0267319962174381</v>
       </c>
     </row>
     <row r="7">
@@ -1848,16 +1848,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.840619276185217</v>
+        <v>0.840619276185187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00569121982484338</v>
+        <v>0.00569121982902597</v>
       </c>
       <c r="E7" t="n">
-        <v>0.773164743039742</v>
+        <v>0.773164743039847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000899141608185047</v>
+        <v>0.000899141608084416</v>
       </c>
     </row>
     <row r="8">
@@ -1868,16 +1868,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.47163313433278</v>
+        <v>-1.47163313433276</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00000377488142467177</v>
+        <v>0.00000377488143017043</v>
       </c>
       <c r="E8" t="n">
         <v>-1.27535655647513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0000000655385389737292</v>
+        <v>0.0000000655385387293565</v>
       </c>
     </row>
     <row r="9">
@@ -1888,16 +1888,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.576105737633835</v>
+        <v>-0.57610573763379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00000000144001536729463</v>
+        <v>0.00000000144001538570283</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.428249201382984</v>
+        <v>-0.428249201383357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00000000751550843191275</v>
+        <v>0.00000000751550776069481</v>
       </c>
     </row>
     <row r="10">
@@ -1908,16 +1908,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>1.80224909041358</v>
+        <v>1.80224909041357</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0000000000000105460676950043</v>
+        <v>0.0000000000000105460677435267</v>
       </c>
       <c r="E10" t="n">
-        <v>1.53527697098677</v>
+        <v>1.53527697098693</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000000000000958129834973554</v>
+        <v>0.00000000000000000000958129811168854</v>
       </c>
     </row>
     <row r="11">
@@ -1928,16 +1928,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.785616365088761</v>
+        <v>-0.785616365088706</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000000000170933643291618</v>
+        <v>0.000000000170933644812066</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.41149434167996</v>
+        <v>-0.411494341680316</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0000115955430595963</v>
+        <v>0.0000115955426251181</v>
       </c>
     </row>
     <row r="12">
@@ -1948,16 +1948,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>1.3768822944369</v>
+        <v>1.37688229443693</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00152505112625766</v>
+        <v>0.00152505112688969</v>
       </c>
       <c r="E12" t="n">
-        <v>1.82739333647714</v>
+        <v>1.82739333647711</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000000510545259782062</v>
+        <v>0.000000000510545258927541</v>
       </c>
     </row>
     <row r="13">
@@ -1968,16 +1968,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>4.34577751632854</v>
+        <v>4.34577751632948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000159537602089502</v>
+        <v>0.000159537602159341</v>
       </c>
       <c r="E13" t="n">
-        <v>4.01021301542407</v>
+        <v>4.01021301542832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000965053600960849</v>
+        <v>0.0000965053602742045</v>
       </c>
     </row>
     <row r="14">
@@ -1988,16 +1988,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.453442158554057</v>
+        <v>-0.453442158554085</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000973092315706691</v>
+        <v>0.000973092318615991</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.302012082092884</v>
+        <v>-0.302012082092856</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00949204554736326</v>
+        <v>0.00949204538150521</v>
       </c>
     </row>
     <row r="15">
@@ -2008,16 +2008,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.84338386544102</v>
+        <v>-0.843383865441039</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000958547880471509</v>
+        <v>0.000958547881591958</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.547354239776292</v>
+        <v>-0.54735423977605</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00698931888335859</v>
+        <v>0.00698931884912356</v>
       </c>
     </row>
     <row r="16">
@@ -2028,16 +2028,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.38101058102246</v>
+        <v>-1.38101058102243</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0000407142936090655</v>
+        <v>0.0000407142936551567</v>
       </c>
       <c r="E16" t="n">
         <v>-1.14732122586531</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000000468638725255432</v>
+        <v>0.000000468638723198462</v>
       </c>
     </row>
     <row r="17">
@@ -2048,16 +2048,16 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.891962646610536</v>
+        <v>0.89196264661052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00000000109371678633334</v>
+        <v>0.00000000109371679321112</v>
       </c>
       <c r="E17" t="n">
-        <v>0.331780530668357</v>
+        <v>0.331780530668531</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0417275773720033</v>
+        <v>0.0417275770507175</v>
       </c>
     </row>
     <row r="18">
@@ -2068,16 +2068,16 @@
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>0.760656520676429</v>
+        <v>0.760656520676385</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000000000000146707810491054</v>
+        <v>0.00000000000014670781285154</v>
       </c>
       <c r="E18" t="n">
-        <v>0.426227164594997</v>
+        <v>0.426227164595692</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000000872599929573605</v>
+        <v>0.000000872599877543632</v>
       </c>
     </row>
     <row r="19">
@@ -2088,16 +2088,16 @@
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.02607305468173</v>
+        <v>-2.02607305468175</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0015109298978114</v>
+        <v>0.00151092989852866</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.07775681709175</v>
+        <v>-1.07775681709173</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0358312518586766</v>
+        <v>0.0358312518512669</v>
       </c>
     </row>
     <row r="20">
@@ -2108,16 +2108,16 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>0.812767103026426</v>
+        <v>0.812767103026434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00640027812102169</v>
+        <v>0.0064002781258174</v>
       </c>
       <c r="E20" t="n">
-        <v>0.600224204669357</v>
+        <v>0.600224204669417</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0274067788233322</v>
+        <v>0.0274067787779851</v>
       </c>
     </row>
     <row r="21">
@@ -2128,16 +2128,16 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.852530893916112</v>
+        <v>-0.852530893916092</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0394967100727478</v>
+        <v>0.0394967100871062</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.884600203079401</v>
+        <v>-0.884600203079374</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000861082853557118</v>
+        <v>0.000861082851903012</v>
       </c>
     </row>
     <row r="22">
@@ -2148,16 +2148,16 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>2.18570479043578</v>
+        <v>2.18570479043601</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0000000403209155856782</v>
+        <v>0.0000000403209156459435</v>
       </c>
       <c r="E22" t="n">
-        <v>2.02575199895665</v>
+        <v>2.02575199895655</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000000124814221043916</v>
+        <v>0.000000124814220978579</v>
       </c>
     </row>
     <row r="23">
@@ -2168,16 +2168,16 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>1.32328310974284</v>
+        <v>1.32328310974281</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0000000000266410507586493</v>
+        <v>0.0000000000266410508774907</v>
       </c>
       <c r="E23" t="n">
-        <v>0.560984651881588</v>
+        <v>0.560984651881684</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0231307532967845</v>
+        <v>0.023130753231259</v>
       </c>
     </row>
     <row r="24">
@@ -2188,16 +2188,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.483591028884231</v>
+        <v>-0.483591028884219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00000232919561917312</v>
+        <v>0.00000232919563773791</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.291309815346387</v>
+        <v>-0.291309815346088</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00145163802117667</v>
+        <v>0.00145163799131424</v>
       </c>
     </row>
     <row r="25">
@@ -2208,16 +2208,16 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.1466948926681</v>
+        <v>-1.14669489266812</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000000000000326662900557624</v>
+        <v>0.000000000000326662903014232</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.45485838395852</v>
+        <v>-0.454858383958633</v>
       </c>
       <c r="F25" t="n">
-        <v>0.000223860937158671</v>
+        <v>0.000223860932740725</v>
       </c>
     </row>
     <row r="26">
@@ -2228,16 +2228,16 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06909778366</v>
+        <v>1.06909778365989</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00432598599756384</v>
+        <v>0.00432598600067275</v>
       </c>
       <c r="E26" t="n">
-        <v>1.06256508814287</v>
+        <v>1.06256508814301</v>
       </c>
       <c r="F26" t="n">
-        <v>0.000480623435675735</v>
+        <v>0.000480623435264648</v>
       </c>
     </row>
     <row r="27">
@@ -2248,16 +2248,16 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>0.548439375452224</v>
+        <v>0.548439375452276</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0352761006048313</v>
+        <v>0.0352761006284979</v>
       </c>
       <c r="E27" t="n">
-        <v>0.51582030347437</v>
+        <v>0.515820303474151</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0246507568957219</v>
+        <v>0.0246507568260149</v>
       </c>
     </row>
     <row r="28">
@@ -2268,16 +2268,16 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.51293480852131</v>
+        <v>-1.51293480852134</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00212423551042746</v>
+        <v>0.00212423551159056</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.01160040152338</v>
+        <v>-1.01160040152339</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0230995952209655</v>
+        <v>0.0230995952222895</v>
       </c>
     </row>
     <row r="29">
@@ -2288,16 +2288,16 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.00555660361987</v>
+        <v>-2.00555660361984</v>
       </c>
       <c r="D29" t="n">
-        <v>0.000575734426934585</v>
+        <v>0.000575734427267143</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.18380116321102</v>
+        <v>-1.18380116321107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0106197538211787</v>
+        <v>0.0106197537887907</v>
       </c>
     </row>
     <row r="30">
@@ -2308,16 +2308,16 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>0.711106187789954</v>
+        <v>0.711106187789932</v>
       </c>
       <c r="D30" t="n">
-        <v>0.000000000000000000044104658858451</v>
+        <v>0.0000000000000000000441046604528983</v>
       </c>
       <c r="E30" t="n">
-        <v>0.179865588244588</v>
+        <v>0.179865588244812</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008451416904827</v>
+        <v>0.00845141683771594</v>
       </c>
     </row>
     <row r="31">
@@ -2328,16 +2328,16 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>1.05575310473924</v>
+        <v>1.05575310473919</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00349058897817712</v>
+        <v>0.00349058898044734</v>
       </c>
       <c r="E31" t="n">
-        <v>0.845057078905152</v>
+        <v>0.84505707890527</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0219876396243048</v>
+        <v>0.0219876396035701</v>
       </c>
     </row>
     <row r="32">
@@ -2348,16 +2348,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>1.23844765986432</v>
+        <v>1.2384476598644</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0157794832388103</v>
+        <v>0.0157794832450691</v>
       </c>
       <c r="E32" t="n">
-        <v>1.07581687211291</v>
+        <v>1.07581687211296</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0364162348639396</v>
+        <v>0.0364162348761034</v>
       </c>
     </row>
     <row r="33">
@@ -2366,16 +2366,16 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="n">
-        <v>1.82453164700794</v>
+        <v>1.82453164700797</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000409103868612929</v>
+        <v>0.000409103869425803</v>
       </c>
       <c r="E33" t="n">
-        <v>1.55049838688594</v>
+        <v>1.55049838688598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.00137619590654948</v>
+        <v>0.00137619590759078</v>
       </c>
     </row>
     <row r="34">
@@ -2386,16 +2386,16 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>1.02342701270776</v>
+        <v>1.02342701270778</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000137196672225606</v>
+        <v>0.000137196672405759</v>
       </c>
       <c r="E34" t="n">
-        <v>0.650957931253512</v>
+        <v>0.650957931253542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0372912513514868</v>
+        <v>0.0372912512908374</v>
       </c>
     </row>
     <row r="35">
@@ -2406,16 +2406,16 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>0.624398829406994</v>
+        <v>0.624398829407018</v>
       </c>
       <c r="D35" t="n">
-        <v>0.000272143239490483</v>
+        <v>0.000272143240128412</v>
       </c>
       <c r="E35" t="n">
-        <v>0.462985124076401</v>
+        <v>0.462985124076335</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00452729778468933</v>
+        <v>0.00452729774824896</v>
       </c>
     </row>
     <row r="36">
@@ -2426,16 +2426,16 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>1.71459254413189</v>
+        <v>1.71459254413187</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0332928837912115</v>
+        <v>0.0332928837993819</v>
       </c>
       <c r="E36" t="n">
-        <v>2.0874493784212</v>
+        <v>2.08744937842111</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00145681250897868</v>
+        <v>0.00145681241815624</v>
       </c>
     </row>
     <row r="37">
@@ -2446,16 +2446,16 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>1.10013368077793</v>
+        <v>1.10013368077797</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000735496161203828</v>
+        <v>0.000735496161854964</v>
       </c>
       <c r="E37" t="n">
-        <v>1.10043068522896</v>
+        <v>1.10043068522884</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00000287046467153993</v>
+        <v>0.00000287046466106095</v>
       </c>
     </row>
     <row r="38">
@@ -2466,16 +2466,16 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.843171201661646</v>
+        <v>-0.843171201661726</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0132663699057002</v>
+        <v>0.0132663699131833</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.651710465028198</v>
+        <v>-0.651710465027963</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0331525399457176</v>
+        <v>0.0331525398984375</v>
       </c>
     </row>
     <row r="39">
@@ -2486,16 +2486,16 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>0.533112971451154</v>
+        <v>0.533112971451185</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0000164554268017223</v>
+        <v>0.0000164554268864785</v>
       </c>
       <c r="E39" t="n">
-        <v>0.337169615589039</v>
+        <v>0.33716961558884</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00110839353543524</v>
+        <v>0.00110839352998411</v>
       </c>
     </row>
     <row r="40">
@@ -2506,16 +2506,16 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>1.1779903234927</v>
+        <v>1.17799032349276</v>
       </c>
       <c r="D40" t="n">
-        <v>0.00148130129898094</v>
+        <v>0.0014813013000581</v>
       </c>
       <c r="E40" t="n">
-        <v>0.771893603629869</v>
+        <v>0.771893603629802</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0364162348639396</v>
+        <v>0.0364162348761034</v>
       </c>
     </row>
     <row r="41">
@@ -2526,16 +2526,16 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>1.84214626858382</v>
+        <v>1.8421462685837</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00337029525361571</v>
+        <v>0.00337029525507625</v>
       </c>
       <c r="E41" t="n">
-        <v>1.61934680558075</v>
+        <v>1.61934680558054</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0229234410084299</v>
+        <v>0.0229234410205085</v>
       </c>
     </row>
     <row r="42">
@@ -2546,16 +2546,16 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>0.402764174507053</v>
+        <v>0.402764174507098</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0401593377655264</v>
+        <v>0.0401593378042581</v>
       </c>
       <c r="E42" t="n">
-        <v>0.777728531783558</v>
+        <v>0.777728531783073</v>
       </c>
       <c r="F42" t="n">
-        <v>0.000000000660591618231898</v>
+        <v>0.000000000660591597453286</v>
       </c>
     </row>
     <row r="43">
@@ -2566,16 +2566,16 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.01231109961742</v>
+        <v>-1.01231109961746</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00000144215172687571</v>
+        <v>0.0000014421517305458</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.589385720981994</v>
+        <v>-0.589385720981655</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00581946817681849</v>
+        <v>0.00581946814649059</v>
       </c>
     </row>
     <row r="44">
@@ -2586,16 +2586,16 @@
         <v>90</v>
       </c>
       <c r="C44" t="n">
-        <v>1.26352889468659</v>
+        <v>1.2635288946866</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00000000000000000000000000372876741559398</v>
+        <v>0.00000000000000000000000000372876750174495</v>
       </c>
       <c r="E44" t="n">
-        <v>0.329593690656454</v>
+        <v>0.329593690656438</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0098157680669459</v>
+        <v>0.00981576793067528</v>
       </c>
     </row>
     <row r="45">
@@ -2606,16 +2606,16 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.881631373314876</v>
+        <v>-0.881631373314871</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0115347998913309</v>
+        <v>0.011534799897785</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.04014308932955</v>
+        <v>-1.04014308932954</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000190854632190607</v>
+        <v>0.000190854631670675</v>
       </c>
     </row>
     <row r="46">
@@ -2626,16 +2626,16 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>-2.35671175705748</v>
+        <v>-2.35671175705744</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000000207913243823139</v>
+        <v>0.000000207913245795482</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.71315795728423</v>
+        <v>-2.71315795728412</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00000000000000000000125465327387776</v>
+        <v>0.00000000000000000000125465326845432</v>
       </c>
     </row>
     <row r="47">
@@ -2646,16 +2646,16 @@
         <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>1.93330953757493</v>
+        <v>1.93330953757495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0169022697568512</v>
+        <v>0.0169022697617411</v>
       </c>
       <c r="E47" t="n">
-        <v>2.00193035567187</v>
+        <v>2.00193035567198</v>
       </c>
       <c r="F47" t="n">
-        <v>0.000565576039304329</v>
+        <v>0.000565576040157597</v>
       </c>
     </row>
     <row r="48">
@@ -2666,16 +2666,16 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.918108386194126</v>
+        <v>-0.918108386194097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0101950824276349</v>
+        <v>0.0101950824334391</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.814783507307278</v>
+        <v>-0.814783507307386</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00256455730721109</v>
+        <v>0.00256455730257733</v>
       </c>
     </row>
     <row r="49">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>1.45917084256016</v>
+        <v>1.45917084256009</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000000000000000933817868686687</v>
+        <v>0.000000000000000933817875348397</v>
       </c>
       <c r="E49" t="n">
-        <v>1.16833188137655</v>
+        <v>1.1683318813771</v>
       </c>
       <c r="F49" t="n">
-        <v>0.00000000000000121013034120113</v>
+        <v>0.0000000000000012101303008208</v>
       </c>
     </row>
     <row r="50">
@@ -2706,16 +2706,16 @@
         <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>1.58518679581872</v>
+        <v>1.58518679581875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.00000000154404977436489</v>
+        <v>0.00000000154404977845547</v>
       </c>
       <c r="E50" t="n">
-        <v>0.916908025166018</v>
+        <v>0.916908025165904</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000476823943562977</v>
+        <v>0.000476823942374942</v>
       </c>
     </row>
     <row r="51">
@@ -2726,16 +2726,16 @@
         <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.730751049453703</v>
+        <v>0.730751049453731</v>
       </c>
       <c r="D51" t="n">
-        <v>0.000318817697857537</v>
+        <v>0.000318817698447239</v>
       </c>
       <c r="E51" t="n">
-        <v>0.396040077298443</v>
+        <v>0.396040077298282</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0300185878619499</v>
+        <v>0.0300185876762546</v>
       </c>
     </row>
     <row r="52">
@@ -2746,16 +2746,16 @@
         <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>1.72463071542745</v>
+        <v>1.72463071542725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0248113668706901</v>
+        <v>0.0248113668773148</v>
       </c>
       <c r="E52" t="n">
-        <v>1.51542687942968</v>
+        <v>1.51542687942904</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0467575687077631</v>
+        <v>0.0467575687388069</v>
       </c>
     </row>
     <row r="53">
@@ -2766,16 +2766,16 @@
         <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>0.879868399965617</v>
+        <v>0.879868399965666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0196072833781589</v>
+        <v>0.0196072833871746</v>
       </c>
       <c r="E53" t="n">
-        <v>0.900449150272419</v>
+        <v>0.900449150272244</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000376189928449739</v>
+        <v>0.000376189927462123</v>
       </c>
     </row>
     <row r="54">
@@ -2786,16 +2786,16 @@
         <v>110</v>
       </c>
       <c r="C54" t="n">
-        <v>1.11737703628906</v>
+        <v>1.11737703628914</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00000000000347693878968172</v>
+        <v>0.00000000000347693881420369</v>
       </c>
       <c r="E54" t="n">
-        <v>0.593180806124343</v>
+        <v>0.593180806123813</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000108894955249208</v>
+        <v>0.000108894953597038</v>
       </c>
     </row>
     <row r="55">
@@ -2806,16 +2806,16 @@
         <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>0.654314375414445</v>
+        <v>0.654314375414407</v>
       </c>
       <c r="D55" t="n">
-        <v>0.000000000000198380040959088</v>
+        <v>0.000000000000198380041731603</v>
       </c>
       <c r="E55" t="n">
-        <v>0.342086506194308</v>
+        <v>0.342086506195049</v>
       </c>
       <c r="F55" t="n">
-        <v>0.000000060181069655876</v>
+        <v>0.0000000601810686343622</v>
       </c>
     </row>
     <row r="56">
@@ -2826,16 +2826,16 @@
         <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.46170544989754</v>
+        <v>-0.461705449897527</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0216696864017058</v>
+        <v>0.0216696864206626</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.369440799866439</v>
+        <v>-0.369440799866184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00553740888713623</v>
+        <v>0.00553740869653683</v>
       </c>
     </row>
     <row r="57">
@@ -2846,16 +2846,16 @@
         <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>0.647951884503316</v>
+        <v>0.647951884503282</v>
       </c>
       <c r="D57" t="n">
-        <v>0.015635919021857</v>
+        <v>0.0156359190334813</v>
       </c>
       <c r="E57" t="n">
-        <v>1.18871139877653</v>
+        <v>1.18871139877679</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0000000000011193521129693</v>
+        <v>0.00000000000111935209263965</v>
       </c>
     </row>
     <row r="58">
@@ -2866,16 +2866,16 @@
         <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>1.55996023107663</v>
+        <v>1.55996023107655</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00000000000302055348623571</v>
+        <v>0.00000000000302055349873638</v>
       </c>
       <c r="E58" t="n">
-        <v>0.718273247711102</v>
+        <v>0.718273247711451</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00225554617027366</v>
+        <v>0.00225554616243733</v>
       </c>
     </row>
     <row r="59">
@@ -2886,16 +2886,16 @@
         <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>0.901907226311854</v>
+        <v>0.901907226311842</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0000000000000000000000000000000000000038515922173056</v>
+        <v>0.00000000000000000000000000000000000000385159252924652</v>
       </c>
       <c r="E59" t="n">
-        <v>0.25409672928718</v>
+        <v>0.254096729287635</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0000119694643715975</v>
+        <v>0.0000119694630996184</v>
       </c>
     </row>
     <row r="60">
@@ -2906,16 +2906,16 @@
         <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>0.644924662416583</v>
+        <v>0.644924662416603</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0000407624347217166</v>
+        <v>0.0000407624348630036</v>
       </c>
       <c r="E60" t="n">
-        <v>0.591843775234125</v>
+        <v>0.591843775233881</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000000186601309671427</v>
+        <v>0.000000186601302477228</v>
       </c>
     </row>
     <row r="61">
@@ -2926,16 +2926,16 @@
         <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>0.671934634113065</v>
+        <v>0.671934634113001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0000384416042993118</v>
+        <v>0.0000384416044154488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.361560477497861</v>
+        <v>0.36156047749865</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0126255973346927</v>
+        <v>0.0126255972060296</v>
       </c>
     </row>
     <row r="62">
@@ -2946,16 +2946,16 @@
         <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.61353762828816</v>
+        <v>-1.61353762828811</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00000601442654658031</v>
+        <v>0.00000601442655386475</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.05449249871296</v>
+        <v>-1.05449249871298</v>
       </c>
       <c r="F62" t="n">
-        <v>0.000172484468029054</v>
+        <v>0.00017248446755306</v>
       </c>
     </row>
     <row r="63">
@@ -2966,16 +2966,16 @@
         <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.787837237659042</v>
+        <v>-0.787837237659089</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00147472374973634</v>
+        <v>0.00147472375145921</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.606195623567475</v>
+        <v>-0.606195623567303</v>
       </c>
       <c r="F63" t="n">
-        <v>0.000480873474079898</v>
+        <v>0.000480873472609834</v>
       </c>
     </row>
     <row r="64">
@@ -2986,16 +2986,16 @@
         <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>0.764062143174404</v>
+        <v>0.764062143174288</v>
       </c>
       <c r="D64" t="n">
-        <v>0.000406236909169768</v>
+        <v>0.000406236909854941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.582074589619065</v>
+        <v>0.582074589619786</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00793610363866695</v>
+        <v>0.00793610359079327</v>
       </c>
     </row>
     <row r="65">
@@ -3006,16 +3006,16 @@
         <v>132</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.728527406761444</v>
+        <v>-0.72852740676142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.000000000000000596694359388287</v>
+        <v>0.000000000000000596694372755356</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.321551715459858</v>
+        <v>-0.321551715459955</v>
       </c>
       <c r="F65" t="n">
-        <v>0.000000619421144650706</v>
+        <v>0.000000619421086350936</v>
       </c>
     </row>
     <row r="66">
@@ -3026,16 +3026,16 @@
         <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.561351695447831</v>
+        <v>0.561351695447783</v>
       </c>
       <c r="D66" t="n">
-        <v>0.000512357599591691</v>
+        <v>0.000512357600840575</v>
       </c>
       <c r="E66" t="n">
-        <v>0.663504873107045</v>
+        <v>0.663504873107418</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0000000000116307290266291</v>
+        <v>0.0000000000116307283824467</v>
       </c>
     </row>
     <row r="67">
@@ -3046,16 +3046,16 @@
         <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>0.41017326145345</v>
+        <v>0.410173261453428</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0000243054233173475</v>
+        <v>0.00002430542349997</v>
       </c>
       <c r="E67" t="n">
-        <v>0.298494365493359</v>
+        <v>0.298494365493529</v>
       </c>
       <c r="F67" t="n">
-        <v>0.000487285070926196</v>
+        <v>0.0004872850500562</v>
       </c>
     </row>
     <row r="68">
@@ -3064,16 +3064,16 @@
       </c>
       <c r="B68"/>
       <c r="C68" t="n">
-        <v>1.92788872524745</v>
+        <v>1.9278887252475</v>
       </c>
       <c r="D68" t="n">
-        <v>0.00000017413414767954</v>
+        <v>0.00000017413414795449</v>
       </c>
       <c r="E68" t="n">
-        <v>1.91786562652284</v>
+        <v>1.91786562652283</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0000000000196894148834635</v>
+        <v>0.0000000000196894148729582</v>
       </c>
     </row>
     <row r="69">
@@ -3084,16 +3084,16 @@
         <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>-1.03069933534262</v>
+        <v>-1.03069933534258</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0398881588440084</v>
+        <v>0.0398881588561012</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.910439778802204</v>
+        <v>-0.910439778802229</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0397612056808152</v>
+        <v>0.039761205632446</v>
       </c>
     </row>
     <row r="70">
@@ -3104,16 +3104,16 @@
         <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.682435550365286</v>
+        <v>-0.682435550365289</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0000970383177919023</v>
+        <v>0.0000970383180373223</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.383173907023966</v>
+        <v>-0.383173907023798</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00682368769649455</v>
+        <v>0.00682368770212244</v>
       </c>
     </row>
     <row r="71">
@@ -3124,16 +3124,16 @@
         <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>-1.38113823235247</v>
+        <v>-1.38113823235248</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00000190967821423748</v>
+        <v>0.00000190967821745107</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.736298473473887</v>
+        <v>-0.736298473473626</v>
       </c>
       <c r="F71" t="n">
-        <v>0.000061205399344094</v>
+        <v>0.0000612053988726413</v>
       </c>
     </row>
     <row r="72">
@@ -3144,16 +3144,16 @@
         <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>0.72010187674731</v>
+        <v>0.720101876747238</v>
       </c>
       <c r="D72" t="n">
-        <v>0.000000153655043168391</v>
+        <v>0.000000153655044153724</v>
       </c>
       <c r="E72" t="n">
-        <v>0.359799330714694</v>
+        <v>0.359799330715642</v>
       </c>
       <c r="F72" t="n">
-        <v>0.000969935447749463</v>
+        <v>0.00096993544117297</v>
       </c>
     </row>
     <row r="73">
@@ -3164,16 +3164,16 @@
         <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.71747721335534</v>
+        <v>-1.71747721335533</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0000219298292958374</v>
+        <v>0.0000219298293194142</v>
       </c>
       <c r="E73" t="n">
         <v>-1.08770585021454</v>
       </c>
       <c r="F73" t="n">
-        <v>0.000809351501622045</v>
+        <v>0.000809351501442566</v>
       </c>
     </row>
     <row r="74">
@@ -3184,16 +3184,16 @@
         <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>1.62463089566863</v>
+        <v>1.62463089566868</v>
       </c>
       <c r="D74" t="n">
-        <v>0.000000000000000000000635374455962663</v>
+        <v>0.000000000000000000000635374462590581</v>
       </c>
       <c r="E74" t="n">
-        <v>1.19181194592285</v>
+        <v>1.19181194592267</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00000000000000393118180549347</v>
+        <v>0.00000000000000393118169565114</v>
       </c>
     </row>
     <row r="75">
@@ -3204,16 +3204,16 @@
         <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>2.22989812084598</v>
+        <v>2.22989812084603</v>
       </c>
       <c r="D75" t="n">
-        <v>0.000110082905390039</v>
+        <v>0.000110082905462165</v>
       </c>
       <c r="E75" t="n">
-        <v>2.65773061697688</v>
+        <v>2.65773061697694</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0000000000000164272440556552</v>
+        <v>0.0000000000000164272440802024</v>
       </c>
     </row>
     <row r="76">
@@ -3224,16 +3224,16 @@
         <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>2.16169926262256</v>
+        <v>2.16169926262268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00379346710533149</v>
+        <v>0.00379346710690263</v>
       </c>
       <c r="E76" t="n">
-        <v>2.09774919325876</v>
+        <v>2.09774919325916</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00171782730756231</v>
+        <v>0.00171782730970234</v>
       </c>
     </row>
     <row r="77">
@@ -3244,16 +3244,16 @@
         <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>-1.32135902532388</v>
+        <v>-1.32135902532385</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0037687295386133</v>
+        <v>0.00376872954071205</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.817013662983479</v>
+        <v>-0.817013662983474</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0417275773720033</v>
+        <v>0.0417275770507175</v>
       </c>
     </row>
     <row r="78">
@@ -3264,16 +3264,16 @@
         <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.36823931451565</v>
+        <v>-1.36823931451566</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00000181931355223653</v>
+        <v>0.00000181931355540305</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.519308459575497</v>
+        <v>-0.519308459575771</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00870228084939797</v>
+        <v>0.00870228080398758</v>
       </c>
     </row>
     <row r="79">
@@ -3284,16 +3284,16 @@
         <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.652519568198265</v>
+        <v>0.652519568198257</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0347495171342309</v>
+        <v>0.0347495171524938</v>
       </c>
       <c r="E79" t="n">
-        <v>1.04163663784871</v>
+        <v>1.04163663784913</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0000000000075943443859216</v>
+        <v>0.00000000000759434422391797</v>
       </c>
     </row>
     <row r="80">
@@ -3304,16 +3304,16 @@
         <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>0.396419695899786</v>
+        <v>0.396419695899755</v>
       </c>
       <c r="D80" t="n">
-        <v>0.000197514760890777</v>
+        <v>0.00019751476194896</v>
       </c>
       <c r="E80" t="n">
-        <v>0.299551710642943</v>
+        <v>0.299551710643294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0105644672253393</v>
+        <v>0.010564467025989</v>
       </c>
     </row>
     <row r="81">
@@ -3324,16 +3324,16 @@
         <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>0.516354931262688</v>
+        <v>0.516354931262637</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0218932137095514</v>
+        <v>0.0218932137300469</v>
       </c>
       <c r="E81" t="n">
-        <v>0.471314129019237</v>
+        <v>0.471314129019779</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00185839793921261</v>
+        <v>0.00185839791795332</v>
       </c>
     </row>
     <row r="82">
@@ -3347,13 +3347,13 @@
         <v>-1.61925030779237</v>
       </c>
       <c r="D82" t="n">
-        <v>0.000661924377098309</v>
+        <v>0.000661924377775144</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.09186056390506</v>
+        <v>-1.09186056390508</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00317805373348315</v>
+        <v>0.0031780537322541</v>
       </c>
     </row>
     <row r="83">
@@ -3364,16 +3364,16 @@
         <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45820382044547</v>
+        <v>1.45820382044551</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0000000763674463771876</v>
+        <v>0.000000076367446541897</v>
       </c>
       <c r="E83" t="n">
-        <v>0.856286855997677</v>
+        <v>0.856286855997632</v>
       </c>
       <c r="F83" t="n">
-        <v>0.000993826703019079</v>
+        <v>0.000993826701118115</v>
       </c>
     </row>
     <row r="84">
@@ -3384,16 +3384,16 @@
         <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>0.691021748636938</v>
+        <v>0.691021748637021</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0126557253343416</v>
+        <v>0.0126557253410922</v>
       </c>
       <c r="E84" t="n">
-        <v>0.592297728306709</v>
+        <v>0.592297728306322</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0304142305918935</v>
+        <v>0.030414230521222</v>
       </c>
     </row>
     <row r="85">
@@ -3404,16 +3404,16 @@
         <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.745408887480819</v>
+        <v>-0.745408887480836</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0173814384777584</v>
+        <v>0.0173814384880976</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.507005182103892</v>
+        <v>-0.507005182103515</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0488239804621552</v>
+        <v>0.0488239803432451</v>
       </c>
     </row>
     <row r="86">
@@ -3424,16 +3424,16 @@
         <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>1.61795623059956</v>
+        <v>1.61795623059958</v>
       </c>
       <c r="D86" t="n">
-        <v>0.000000000000000000000257014971187137</v>
+        <v>0.000000000000000000000257014974058157</v>
       </c>
       <c r="E86" t="n">
-        <v>0.727323470650767</v>
+        <v>0.727323470650571</v>
       </c>
       <c r="F86" t="n">
-        <v>0.000000528381425419083</v>
+        <v>0.000000528381416203069</v>
       </c>
     </row>
     <row r="87">
@@ -3444,16 +3444,16 @@
         <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.705339373063009</v>
+        <v>0.705339373062958</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0000811402585560371</v>
+        <v>0.0000811402587558691</v>
       </c>
       <c r="E87" t="n">
-        <v>0.728522307037305</v>
+        <v>0.728522307037968</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0000000360630653035433</v>
+        <v>0.0000000360630644057533</v>
       </c>
     </row>
     <row r="88">
@@ -3464,16 +3464,16 @@
         <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>1.40590522495291</v>
+        <v>1.40590522495295</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0000000000000000000437394512221307</v>
+        <v>0.0000000000000000000437394517145337</v>
       </c>
       <c r="E88" t="n">
-        <v>0.955440143979727</v>
+        <v>0.955440143979509</v>
       </c>
       <c r="F88" t="n">
-        <v>0.000000000000000634895822580416</v>
+        <v>0.000000000000000634895791962735</v>
       </c>
     </row>
     <row r="89">
@@ -3484,16 +3484,16 @@
         <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.754635366322775</v>
+        <v>-0.754635366322773</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0000760757422479326</v>
+        <v>0.0000760757424169324</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.496601418250795</v>
+        <v>-0.496601418250925</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00706043892457016</v>
+        <v>0.00706043887798877</v>
       </c>
     </row>
     <row r="90">
@@ -3504,16 +3504,16 @@
         <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>2.36125452706909</v>
+        <v>2.36125452706899</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00000000000187074530423607</v>
+        <v>0.00000000000187074530919708</v>
       </c>
       <c r="E90" t="n">
-        <v>1.06579750406831</v>
+        <v>1.06579750406826</v>
       </c>
       <c r="F90" t="n">
-        <v>0.02418253103235</v>
+        <v>0.0241825310397152</v>
       </c>
     </row>
     <row r="91">
@@ -3524,16 +3524,16 @@
         <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>0.870399666086026</v>
+        <v>0.870399666086046</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00000000344081108962079</v>
+        <v>0.00000000344081110975345</v>
       </c>
       <c r="E91" t="n">
-        <v>0.422111344292014</v>
+        <v>0.422111344291849</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0064871950545898</v>
+        <v>0.00648719499476915</v>
       </c>
     </row>
     <row r="92">
@@ -3544,16 +3544,16 @@
         <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>0.895455844968592</v>
+        <v>0.895455844968565</v>
       </c>
       <c r="D92" t="n">
-        <v>0.00151204185584155</v>
+        <v>0.00151204185731362</v>
       </c>
       <c r="E92" t="n">
-        <v>0.551956635282199</v>
+        <v>0.551956635282462</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0195541038780887</v>
+        <v>0.0195541038156577</v>
       </c>
     </row>
     <row r="93">
@@ -3564,16 +3564,16 @@
         <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>-4.61676058910464</v>
+        <v>-4.61676058910457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00000182247226631938</v>
+        <v>0.00000182247227455447</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.11721219657969</v>
+        <v>-2.11721219657973</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00211218127974877</v>
+        <v>0.00211218128226181</v>
       </c>
     </row>
     <row r="94">
@@ -3584,16 +3584,16 @@
         <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>0.799203815746673</v>
+        <v>0.799203815746664</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00000000140092105182581</v>
+        <v>0.0000000014009210625165</v>
       </c>
       <c r="E94" t="n">
-        <v>0.470064991279521</v>
+        <v>0.470064991280044</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00000167298383172894</v>
+        <v>0.00000167298376434718</v>
       </c>
     </row>
     <row r="95">
@@ -3604,16 +3604,16 @@
         <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>1.92058739859893</v>
+        <v>1.92058739859879</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0000000000000000000000025656132593978</v>
+        <v>0.00000000000000000000000256561328712949</v>
       </c>
       <c r="E95" t="n">
-        <v>0.677224316521175</v>
+        <v>0.677224316521698</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00110839353543524</v>
+        <v>0.00110839352998411</v>
       </c>
     </row>
     <row r="96">
@@ -3624,16 +3624,16 @@
         <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.23996857640493</v>
+        <v>-1.23996857640491</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00228745193651043</v>
+        <v>0.00228745193800556</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.19636932416992</v>
+        <v>-1.19636932416993</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00163231955983907</v>
+        <v>0.00163231955942591</v>
       </c>
     </row>
     <row r="97">
@@ -3644,16 +3644,16 @@
         <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>1.48546129242272</v>
+        <v>1.48546129242273</v>
       </c>
       <c r="D97" t="n">
-        <v>0.00000000000261875016830681</v>
+        <v>0.0000000000026187501828294</v>
       </c>
       <c r="E97" t="n">
-        <v>0.655848875950744</v>
+        <v>0.65584887595069</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00666924821973664</v>
+        <v>0.00666924820060958</v>
       </c>
     </row>
     <row r="98">
@@ -3662,16 +3662,16 @@
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
-        <v>-0.786229998589133</v>
+        <v>-0.786229998589077</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000191133683443576</v>
+        <v>0.000191133683654144</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.418747053798043</v>
+        <v>-0.41874705379849</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00767073717173775</v>
+        <v>0.00767073710272299</v>
       </c>
     </row>
     <row r="99">
@@ -3682,16 +3682,16 @@
         <v>198</v>
       </c>
       <c r="C99" t="n">
-        <v>0.557232016113231</v>
+        <v>0.557232016113206</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00310819615130511</v>
+        <v>0.00310819615625337</v>
       </c>
       <c r="E99" t="n">
-        <v>0.480281308044948</v>
+        <v>0.480281308045215</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00167051077309295</v>
+        <v>0.00167051075433919</v>
       </c>
     </row>
     <row r="100">
@@ -3702,16 +3702,16 @@
         <v>200</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.533126155190633</v>
+        <v>-0.533126155190677</v>
       </c>
       <c r="D100" t="n">
-        <v>0.00656590487496526</v>
+        <v>0.00656590488455193</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.28359376793836</v>
+        <v>-0.283593767937879</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0247592862110904</v>
+        <v>0.0247592862370201</v>
       </c>
     </row>
     <row r="101">
@@ -3722,16 +3722,16 @@
         <v>202</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.972190313664611</v>
+        <v>-0.972190313664649</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00000000001993781182157</v>
+        <v>0.0000000000199378119803607</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.823917513346295</v>
+        <v>-0.823917513345997</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0000000000000012229266688564</v>
+        <v>0.00000000000000122292657186943</v>
       </c>
     </row>
     <row r="102">
@@ -3742,16 +3742,16 @@
         <v>204</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06117242841588</v>
+        <v>1.06117242841581</v>
       </c>
       <c r="D102" t="n">
-        <v>0.000112508731155037</v>
+        <v>0.000112508731303094</v>
       </c>
       <c r="E102" t="n">
-        <v>0.618591949855618</v>
+        <v>0.618591949855932</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0465652851420518</v>
+        <v>0.0465652850565431</v>
       </c>
     </row>
     <row r="103">
@@ -3762,16 +3762,16 @@
         <v>206</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06907622123028</v>
+        <v>1.06907622123026</v>
       </c>
       <c r="D103" t="n">
-        <v>0.00000000000000000000000000000155329287245782</v>
+        <v>0.00000000000000000000000000000155329293697786</v>
       </c>
       <c r="E103" t="n">
-        <v>0.260478286099988</v>
+        <v>0.260478286100196</v>
       </c>
       <c r="F103" t="n">
-        <v>0.00464157621004751</v>
+        <v>0.00464157604516418</v>
       </c>
     </row>
     <row r="104">
@@ -3782,16 +3782,16 @@
         <v>208</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.952099966747111</v>
+        <v>-0.952099966747085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.00000268449951715995</v>
+        <v>0.00000268449952421747</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.578396534436216</v>
+        <v>-0.578396534436524</v>
       </c>
       <c r="F104" t="n">
-        <v>0.000660899853815271</v>
+        <v>0.000660899847526122</v>
       </c>
     </row>
     <row r="105">
@@ -3802,16 +3802,16 @@
         <v>210</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.944592168317375</v>
+        <v>-0.944592168317396</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0468496630374787</v>
+        <v>0.0468496630519869</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.841287653065355</v>
+        <v>-0.841287653065316</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0412506132474099</v>
+        <v>0.0412506132350576</v>
       </c>
     </row>
     <row r="106">
@@ -3820,16 +3820,16 @@
       </c>
       <c r="B106"/>
       <c r="C106" t="n">
-        <v>0.556975210419051</v>
+        <v>0.556975210419086</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0000322872697337544</v>
+        <v>0.0000322872697693475</v>
       </c>
       <c r="E106" t="n">
-        <v>0.37964998247831</v>
+        <v>0.37964998247818</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00417545391661352</v>
+        <v>0.00417545385873805</v>
       </c>
     </row>
     <row r="107">
@@ -3840,16 +3840,16 @@
         <v>213</v>
       </c>
       <c r="C107" t="n">
-        <v>-1.27814793437793</v>
+        <v>-1.27814793437791</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000457282641783975</v>
+        <v>0.000457282642518167</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.741604628586714</v>
+        <v>-0.741604628586523</v>
       </c>
       <c r="F107" t="n">
-        <v>0.00086069214763763</v>
+        <v>0.000860692144686723</v>
       </c>
     </row>
     <row r="108">
@@ -3860,16 +3860,16 @@
         <v>215</v>
       </c>
       <c r="C108" t="n">
-        <v>0.849426920153052</v>
+        <v>0.849426920152997</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00000000000440020859310611</v>
+        <v>0.0000000000044002086372486</v>
       </c>
       <c r="E108" t="n">
-        <v>0.347353164724865</v>
+        <v>0.347353164725296</v>
       </c>
       <c r="F108" t="n">
-        <v>0.00812201926921258</v>
+        <v>0.00812201916539372</v>
       </c>
     </row>
     <row r="109">
@@ -3880,16 +3880,16 @@
         <v>217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.324560250540126</v>
+        <v>0.324560250540146</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00232157735014917</v>
+        <v>0.00232157735995055</v>
       </c>
       <c r="E109" t="n">
-        <v>0.250952662823224</v>
+        <v>0.25095266282309</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0133858525533168</v>
+        <v>0.0133858522221594</v>
       </c>
     </row>
     <row r="110">
@@ -3900,16 +3900,16 @@
         <v>219</v>
       </c>
       <c r="C110" t="n">
-        <v>0.247827216770566</v>
+        <v>0.247827216770585</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0266633628310146</v>
+        <v>0.0266633629055409</v>
       </c>
       <c r="E110" t="n">
-        <v>0.319486695476355</v>
+        <v>0.319486695476395</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0000000550270326133466</v>
+        <v>0.0000000550270255550715</v>
       </c>
     </row>
     <row r="111">
@@ -3918,16 +3918,16 @@
       </c>
       <c r="B111"/>
       <c r="C111" t="n">
-        <v>-1.69739697662122</v>
+        <v>-1.69739697662117</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00166072132879712</v>
+        <v>0.00166072133089928</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.965580832473735</v>
+        <v>-0.965580832473738</v>
       </c>
       <c r="F111" t="n">
-        <v>0.00864936118137403</v>
+        <v>0.00864936117745851</v>
       </c>
     </row>
     <row r="112">
@@ -3938,16 +3938,16 @@
         <v>222</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.48143729062434</v>
+        <v>-1.48143729062431</v>
       </c>
       <c r="D112" t="n">
-        <v>0.00995867746441651</v>
+        <v>0.00995867746796274</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.809219473855843</v>
+        <v>-0.809219473855867</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0358312518586766</v>
+        <v>0.0358312518512669</v>
       </c>
     </row>
     <row r="113">
@@ -3958,16 +3958,16 @@
         <v>224</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.16398814556496</v>
+        <v>-1.16398814556497</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00399811878985568</v>
+        <v>0.00399811879217715</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.912616816885827</v>
+        <v>-0.91261681688586</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0198359901074725</v>
+        <v>0.0198359900971995</v>
       </c>
     </row>
     <row r="114">
@@ -3978,16 +3978,16 @@
         <v>226</v>
       </c>
       <c r="C114" t="n">
-        <v>1.55631027264101</v>
+        <v>1.55631027264097</v>
       </c>
       <c r="D114" t="n">
-        <v>0.000000000205242785725116</v>
+        <v>0.000000000205242786383595</v>
       </c>
       <c r="E114" t="n">
-        <v>0.969974673747729</v>
+        <v>0.969974673747794</v>
       </c>
       <c r="F114" t="n">
-        <v>0.000247593523670168</v>
+        <v>0.00024759352312999</v>
       </c>
     </row>
     <row r="115">
@@ -3998,16 +3998,16 @@
         <v>228</v>
       </c>
       <c r="C115" t="n">
-        <v>1.77370137620806</v>
+        <v>1.77370137620798</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0000000000000000000000025656132593978</v>
+        <v>0.00000000000000000000000256561328712949</v>
       </c>
       <c r="E115" t="n">
-        <v>0.911070119307155</v>
+        <v>0.911070119307426</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0000000296891613786259</v>
+        <v>0.0000000296891609965649</v>
       </c>
     </row>
     <row r="116">
@@ -4018,16 +4018,16 @@
         <v>230</v>
       </c>
       <c r="C116" t="n">
-        <v>2.03680595448064</v>
+        <v>2.03680595448071</v>
       </c>
       <c r="D116" t="n">
-        <v>0.000000000000000000069144164770616</v>
+        <v>0.0000000000000000000691441652126097</v>
       </c>
       <c r="E116" t="n">
-        <v>1.23796420543465</v>
+        <v>1.23796420543435</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0000000000717124340943271</v>
+        <v>0.0000000000717124333416537</v>
       </c>
     </row>
     <row r="117">
@@ -4038,16 +4038,16 @@
         <v>232</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.75197276194969</v>
+        <v>-2.75197276194976</v>
       </c>
       <c r="D117" t="n">
-        <v>0.000503878923810884</v>
+        <v>0.000503878924591375</v>
       </c>
       <c r="E117" t="n">
-        <v>-2.14414532656685</v>
+        <v>-2.14414532656691</v>
       </c>
       <c r="F117" t="n">
-        <v>0.000299482483410634</v>
+        <v>0.000299482483898778</v>
       </c>
     </row>
     <row r="118">
@@ -4058,16 +4058,16 @@
         <v>234</v>
       </c>
       <c r="C118" t="n">
-        <v>1.50175240018345</v>
+        <v>1.50175240018329</v>
       </c>
       <c r="D118" t="n">
-        <v>0.00000000307468731603541</v>
+        <v>0.00000000307468732442521</v>
       </c>
       <c r="E118" t="n">
-        <v>1.11347303179205</v>
+        <v>1.11347303179258</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00000497653643323612</v>
+        <v>0.00000497653640900406</v>
       </c>
     </row>
     <row r="119">
@@ -4076,16 +4076,16 @@
       </c>
       <c r="B119"/>
       <c r="C119" t="n">
-        <v>0.798810940908836</v>
+        <v>0.798810940908777</v>
       </c>
       <c r="D119" t="n">
-        <v>0.0003681655444502</v>
+        <v>0.0003681655450223</v>
       </c>
       <c r="E119" t="n">
-        <v>0.517809178684838</v>
+        <v>0.517809178685107</v>
       </c>
       <c r="F119" t="n">
-        <v>0.032886625360897</v>
+        <v>0.0328866252744747</v>
       </c>
     </row>
     <row r="120">
@@ -4096,16 +4096,16 @@
         <v>237</v>
       </c>
       <c r="C120" t="n">
-        <v>-3.21610229703288</v>
+        <v>-3.21610229703291</v>
       </c>
       <c r="D120" t="n">
-        <v>0.000000502216713182364</v>
+        <v>0.000000502216713669692</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.38620327192694</v>
+        <v>-3.38620327192706</v>
       </c>
       <c r="F120" t="n">
-        <v>0.00000000093597647587797</v>
+        <v>0.00000000093597647832134</v>
       </c>
     </row>
     <row r="121">
@@ -4114,16 +4114,16 @@
       </c>
       <c r="B121"/>
       <c r="C121" t="n">
-        <v>0.997382881577749</v>
+        <v>0.997382881577777</v>
       </c>
       <c r="D121" t="n">
-        <v>0.00000000328170525313961</v>
+        <v>0.00000000328170526876728</v>
       </c>
       <c r="E121" t="n">
-        <v>0.80682472351212</v>
+        <v>0.806824723512008</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0000000550270326133466</v>
+        <v>0.0000000550270255550715</v>
       </c>
     </row>
     <row r="122">
@@ -4134,16 +4134,16 @@
         <v>240</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.53081116583342</v>
+        <v>-0.530811165833367</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0177050904150485</v>
+        <v>0.0177050904315784</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.488524127059369</v>
+        <v>-0.488524127059679</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0302738131395644</v>
+        <v>0.0302738130082545</v>
       </c>
     </row>
     <row r="123">
@@ -4152,16 +4152,16 @@
       </c>
       <c r="B123"/>
       <c r="C123" t="n">
-        <v>-0.51313596356653</v>
+        <v>-0.513135963566558</v>
       </c>
       <c r="D123" t="n">
-        <v>0.000236499715346015</v>
+        <v>0.000236499716153771</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.41342675758448</v>
+        <v>-0.413426757584454</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0000637279895857097</v>
+        <v>0.0000637279876282257</v>
       </c>
     </row>
     <row r="124">
@@ -4172,16 +4172,16 @@
         <v>243</v>
       </c>
       <c r="C124" t="n">
-        <v>-6.6989983593602</v>
+        <v>-6.69899835936018</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0012056160183537</v>
+        <v>0.00120561601978204</v>
       </c>
       <c r="E124" t="n">
-        <v>-5.22620007756513</v>
+        <v>-5.22620007756554</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00225554617027366</v>
+        <v>0.00225554616243733</v>
       </c>
     </row>
     <row r="125">
@@ -4192,16 +4192,16 @@
         <v>245</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.79242296037283</v>
+        <v>-1.79242296037287</v>
       </c>
       <c r="D125" t="n">
-        <v>0.00376312279603059</v>
+        <v>0.0037631227982678</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.11439421757001</v>
+        <v>-1.11439421757</v>
       </c>
       <c r="F125" t="n">
-        <v>0.00384775081068589</v>
+        <v>0.00384775081103007</v>
       </c>
     </row>
     <row r="126">
@@ -4212,16 +4212,16 @@
         <v>247</v>
       </c>
       <c r="C126" t="n">
-        <v>1.55138327642676</v>
+        <v>1.55138327642678</v>
       </c>
       <c r="D126" t="n">
-        <v>0.000904828365412933</v>
+        <v>0.000904828365968649</v>
       </c>
       <c r="E126" t="n">
         <v>1.50508619270683</v>
       </c>
       <c r="F126" t="n">
-        <v>0.00000524453523290112</v>
+        <v>0.00000524453523372914</v>
       </c>
     </row>
     <row r="127">
@@ -4232,16 +4232,16 @@
         <v>249</v>
       </c>
       <c r="C127" t="n">
-        <v>0.806265884972554</v>
+        <v>0.806265884972689</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00101676093568788</v>
+        <v>0.00101676093692192</v>
       </c>
       <c r="E127" t="n">
-        <v>0.61434451922211</v>
+        <v>0.614344519221546</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0106197538211787</v>
+        <v>0.0106197537887907</v>
       </c>
     </row>
     <row r="128">
@@ -4252,16 +4252,16 @@
         <v>251</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.19844606383129</v>
+        <v>-1.19844606383128</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0124892636717974</v>
+        <v>0.0124892636763539</v>
       </c>
       <c r="E128" t="n">
-        <v>-1.04001797603607</v>
+        <v>-1.04001797603608</v>
       </c>
       <c r="F128" t="n">
-        <v>0.00665538758393843</v>
+        <v>0.00665538758266053</v>
       </c>
     </row>
     <row r="129">
@@ -4272,16 +4272,16 @@
         <v>253</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.26062320390223</v>
+        <v>-1.2606232039023</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0459659632532274</v>
+        <v>0.0459659632658159</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.61742728454344</v>
+        <v>-1.61742728454351</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00928933041219473</v>
+        <v>0.00928933041840133</v>
       </c>
     </row>
     <row r="130">
@@ -4292,16 +4292,16 @@
         <v>255</v>
       </c>
       <c r="C130" t="n">
-        <v>0.839015532906611</v>
+        <v>0.839015532906707</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0000000168789876163152</v>
+        <v>0.0000000168789877082936</v>
       </c>
       <c r="E130" t="n">
-        <v>0.568799827341137</v>
+        <v>0.568799827340401</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0000136151419337884</v>
+        <v>0.0000136151416680682</v>
       </c>
     </row>
     <row r="131">
@@ -4312,16 +4312,16 @@
         <v>257</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.606061358732801</v>
+        <v>-0.606061358732771</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0114438373081919</v>
+        <v>0.0114438373186453</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.432672074768428</v>
+        <v>-0.432672074768677</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0365328885538169</v>
+        <v>0.0365328884058035</v>
       </c>
     </row>
     <row r="132">
@@ -4332,16 +4332,16 @@
         <v>259</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404318294530763</v>
+        <v>0.404318294530687</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0413121143531502</v>
+        <v>0.0413121143923039</v>
       </c>
       <c r="E132" t="n">
-        <v>0.523444074764291</v>
+        <v>0.523444074764884</v>
       </c>
       <c r="F132" t="n">
-        <v>0.000720359586695638</v>
+        <v>0.000720359586647947</v>
       </c>
     </row>
     <row r="133">
@@ -4352,16 +4352,16 @@
         <v>261</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.685772071726116</v>
+        <v>-0.685772071726188</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0000314183781872047</v>
+        <v>0.0000314183782813485</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.399803721019595</v>
+        <v>-0.39980372101908</v>
       </c>
       <c r="F133" t="n">
-        <v>0.00401457490046996</v>
+        <v>0.0040145748077523</v>
       </c>
     </row>
     <row r="134">
@@ -4372,16 +4372,16 @@
         <v>263</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.40691288169452</v>
+        <v>-2.40691288169455</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0332991484022526</v>
+        <v>0.0332991484085751</v>
       </c>
       <c r="E134" t="n">
-        <v>-1.53771279733987</v>
+        <v>-1.53771279733992</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0112194812124938</v>
+        <v>0.0112194812043546</v>
       </c>
     </row>
     <row r="135">
@@ -4392,16 +4392,16 @@
         <v>265</v>
       </c>
       <c r="C135" t="n">
-        <v>0.926152393628429</v>
+        <v>0.92615239362841</v>
       </c>
       <c r="D135" t="n">
-        <v>0.00432598599756384</v>
+        <v>0.00432598600067275</v>
       </c>
       <c r="E135" t="n">
-        <v>0.666294687318806</v>
+        <v>0.666294687318826</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0250778510577533</v>
+        <v>0.0250778510272157</v>
       </c>
     </row>
     <row r="136">
@@ -4412,16 +4412,16 @@
         <v>267</v>
       </c>
       <c r="C136" t="n">
-        <v>1.37258840796812</v>
+        <v>1.37258840796814</v>
       </c>
       <c r="D136" t="n">
-        <v>0.00000000000822215850272252</v>
+        <v>0.00000000000822215854392194</v>
       </c>
       <c r="E136" t="n">
-        <v>0.850406114392375</v>
+        <v>0.850406114392256</v>
       </c>
       <c r="F136" t="n">
-        <v>0.000026903883985871</v>
+        <v>0.0000269038837545567</v>
       </c>
     </row>
     <row r="137">
@@ -4432,16 +4432,16 @@
         <v>269</v>
       </c>
       <c r="C137" t="n">
-        <v>1.07177814243926</v>
+        <v>1.07177814243919</v>
       </c>
       <c r="D137" t="n">
-        <v>0.000000127334630027639</v>
+        <v>0.000000127334630423932</v>
       </c>
       <c r="E137" t="n">
-        <v>0.60807278382319</v>
+        <v>0.608072783823412</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0245603431164641</v>
+        <v>0.0245603430579391</v>
       </c>
     </row>
     <row r="138">
@@ -4452,16 +4452,16 @@
         <v>271</v>
       </c>
       <c r="C138" t="n">
-        <v>-1.32445182974367</v>
+        <v>-1.32445182974368</v>
       </c>
       <c r="D138" t="n">
-        <v>0.000928785999364787</v>
+        <v>0.000928786000011632</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.795933905295374</v>
+        <v>-0.795933905295316</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0052863846715719</v>
+        <v>0.00528638466410561</v>
       </c>
     </row>
     <row r="139">
@@ -4475,13 +4475,13 @@
         <v>0.576342432814563</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0000489452403814802</v>
+        <v>0.0000489452405986425</v>
       </c>
       <c r="E139" t="n">
-        <v>0.283649665656789</v>
+        <v>0.283649665657081</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00771856880669948</v>
+        <v>0.00771856861359344</v>
       </c>
     </row>
     <row r="140">
@@ -4492,16 +4492,16 @@
         <v>275</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.612222874335574</v>
+        <v>-0.612222874335602</v>
       </c>
       <c r="D140" t="n">
-        <v>0.00201755517335335</v>
+        <v>0.00201755517644811</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.617949938536701</v>
+        <v>-0.617949938536491</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0000319169502827024</v>
+        <v>0.0000319169498378018</v>
       </c>
     </row>
     <row r="141">
@@ -4512,16 +4512,16 @@
         <v>277</v>
       </c>
       <c r="C141" t="n">
-        <v>-2.80270999699894</v>
+        <v>-2.80270999699887</v>
       </c>
       <c r="D141" t="n">
-        <v>0.000536151813435707</v>
+        <v>0.000536151813691588</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.53363908923986</v>
+        <v>-1.53363908923981</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0206719330233794</v>
+        <v>0.0206719330356798</v>
       </c>
     </row>
     <row r="142">
@@ -4530,16 +4530,16 @@
       </c>
       <c r="B142"/>
       <c r="C142" t="n">
-        <v>0.934162966980198</v>
+        <v>0.934162966980285</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0000178101276304051</v>
+        <v>0.0000178101276671838</v>
       </c>
       <c r="E142" t="n">
-        <v>0.587612714666399</v>
+        <v>0.587612714666023</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0149365887526143</v>
+        <v>0.0149365887026254</v>
       </c>
     </row>
     <row r="143">
@@ -4551,13 +4551,13 @@
         <v>-1.56779012038351</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0079820743153788</v>
+        <v>0.00798207431869675</v>
       </c>
       <c r="E143" t="n">
-        <v>-1.18808116989083</v>
+        <v>-1.18808116989092</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0448135862096443</v>
+        <v>0.0448135862288026</v>
       </c>
     </row>
     <row r="144">
@@ -4568,16 +4568,16 @@
         <v>281</v>
       </c>
       <c r="C144" t="n">
-        <v>1.57718125028347</v>
+        <v>1.57718125028349</v>
       </c>
       <c r="D144" t="n">
-        <v>0.000735496161203828</v>
+        <v>0.000735496161854964</v>
       </c>
       <c r="E144" t="n">
-        <v>2.1020644174626</v>
+        <v>2.10206441746259</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0000000000281004620840538</v>
+        <v>0.0000000000281004620619566</v>
       </c>
     </row>
     <row r="145">
@@ -4588,16 +4588,16 @@
         <v>283</v>
       </c>
       <c r="C145" t="n">
-        <v>1.318603771145</v>
+        <v>1.31860377114517</v>
       </c>
       <c r="D145" t="n">
-        <v>0.000000237195418170751</v>
+        <v>0.000000237195418692824</v>
       </c>
       <c r="E145" t="n">
-        <v>0.808989656142554</v>
+        <v>0.808989656142143</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00665538758393843</v>
+        <v>0.00665538758266053</v>
       </c>
     </row>
     <row r="146">
@@ -4608,16 +4608,16 @@
         <v>285</v>
       </c>
       <c r="C146" t="n">
-        <v>0.510656821523651</v>
+        <v>0.510656821523688</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0000100990316959784</v>
+        <v>0.0000100990317167161</v>
       </c>
       <c r="E146" t="n">
-        <v>0.323109535076201</v>
+        <v>0.323109535076156</v>
       </c>
       <c r="F146" t="n">
-        <v>0.00879651012919315</v>
+        <v>0.00879650997765109</v>
       </c>
     </row>
     <row r="147">
@@ -4626,16 +4626,16 @@
       </c>
       <c r="B147"/>
       <c r="C147" t="n">
-        <v>1.12179275874267</v>
+        <v>1.12179275874268</v>
       </c>
       <c r="D147" t="n">
-        <v>0.000000000000940414647984179</v>
+        <v>0.000000000000940414654671737</v>
       </c>
       <c r="E147" t="n">
-        <v>0.542608258407597</v>
+        <v>0.542608258407566</v>
       </c>
       <c r="F147" t="n">
-        <v>0.000957156523965185</v>
+        <v>0.000957156515174752</v>
       </c>
     </row>
     <row r="148">
@@ -4646,16 +4646,16 @@
         <v>288</v>
       </c>
       <c r="C148" t="n">
-        <v>-1.05076196267923</v>
+        <v>-1.05076196267928</v>
       </c>
       <c r="D148" t="n">
-        <v>0.00000000000203905364449338</v>
+        <v>0.00000000000203905366027744</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.493848618624571</v>
+        <v>-0.493848618624108</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0000100894621161592</v>
+        <v>0.000010089461832917</v>
       </c>
     </row>
     <row r="149">
@@ -4666,16 +4666,16 @@
         <v>290</v>
       </c>
       <c r="C149" t="n">
-        <v>-1.66728361686722</v>
+        <v>-1.66728361686726</v>
       </c>
       <c r="D149" t="n">
-        <v>0.000868635958352999</v>
+        <v>0.000868635958784373</v>
       </c>
       <c r="E149" t="n">
         <v>-1.25313627419767</v>
       </c>
       <c r="F149" t="n">
-        <v>0.000899141608185047</v>
+        <v>0.000899141608084416</v>
       </c>
     </row>
     <row r="150">
@@ -4686,16 +4686,16 @@
         <v>292</v>
       </c>
       <c r="C150" t="n">
-        <v>-1.14605088013778</v>
+        <v>-1.14605088013774</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0135066896786147</v>
+        <v>0.0135066896844417</v>
       </c>
       <c r="E150" t="n">
         <v>-1.30620174977929</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0109728340903441</v>
+        <v>0.010972834090366</v>
       </c>
     </row>
     <row r="151">
@@ -4706,16 +4706,16 @@
         <v>294</v>
       </c>
       <c r="C151" t="n">
-        <v>0.786909702893149</v>
+        <v>0.786909702893143</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0000000424532048334626</v>
+        <v>0.000000042453205069661</v>
       </c>
       <c r="E151" t="n">
-        <v>0.543539970077727</v>
+        <v>0.543539970077513</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0000047869790265444</v>
+        <v>0.00000478697890367611</v>
       </c>
     </row>
     <row r="152">
@@ -4726,16 +4726,16 @@
         <v>296</v>
       </c>
       <c r="C152" t="n">
-        <v>1.63644122476545</v>
+        <v>1.63644122476534</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000224303785297793</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000224303799749512</v>
       </c>
       <c r="E152" t="n">
-        <v>1.07989778521193</v>
+        <v>1.0798977852128</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0000000000000000000000000000000117611857074979</v>
+        <v>0.0000000000000000000000000000000117611832133535</v>
       </c>
     </row>
     <row r="153">
@@ -4746,16 +4746,16 @@
         <v>298</v>
       </c>
       <c r="C153" t="n">
-        <v>0.920820240594251</v>
+        <v>0.920820240594273</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0000482722989689812</v>
+        <v>0.0000482722990566168</v>
       </c>
       <c r="E153" t="n">
-        <v>0.612469685602433</v>
+        <v>0.612469685602362</v>
       </c>
       <c r="F153" t="n">
-        <v>0.00890719381773695</v>
+        <v>0.00890719379536251</v>
       </c>
     </row>
     <row r="154">
@@ -4766,16 +4766,16 @@
         <v>300</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.467606466939365</v>
+        <v>-0.467606466939304</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0206575781926104</v>
+        <v>0.0206575782144048</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.746561819560124</v>
+        <v>-0.746561819560555</v>
       </c>
       <c r="F154" t="n">
-        <v>0.000000222978770047788</v>
+        <v>0.000000222978766068893</v>
       </c>
     </row>
     <row r="155">
@@ -4784,16 +4784,16 @@
       </c>
       <c r="B155"/>
       <c r="C155" t="n">
-        <v>3.07245695931006</v>
+        <v>3.07245695930957</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0329984012939357</v>
+        <v>0.0329984013007459</v>
       </c>
       <c r="E155" t="n">
-        <v>3.50224154347694</v>
+        <v>3.50224154347446</v>
       </c>
       <c r="F155" t="n">
-        <v>0.00131311401201024</v>
+        <v>0.00131311401383207</v>
       </c>
     </row>
     <row r="156">
@@ -4804,16 +4804,16 @@
         <v>303</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.33104134106488</v>
+        <v>-1.3310413410649</v>
       </c>
       <c r="D156" t="n">
-        <v>0.000000000000162692710591802</v>
+        <v>0.00000000000016269271159033</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.580103216328768</v>
+        <v>-0.580103216328408</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00129322315797484</v>
+        <v>0.00129322314672915</v>
       </c>
     </row>
     <row r="157">
@@ -4824,16 +4824,16 @@
         <v>305</v>
       </c>
       <c r="C157" t="n">
-        <v>1.68692913479642</v>
+        <v>1.6869291347965</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0329984012939357</v>
+        <v>0.0329984013007459</v>
       </c>
       <c r="E157" t="n">
-        <v>1.7578236068084</v>
+        <v>1.75782360680866</v>
       </c>
       <c r="F157" t="n">
-        <v>0.00213543861205674</v>
+        <v>0.00213543861477552</v>
       </c>
     </row>
     <row r="158">
@@ -4844,16 +4844,16 @@
         <v>307</v>
       </c>
       <c r="C158" t="n">
-        <v>-4.28512643123513</v>
+        <v>-4.28512643123527</v>
       </c>
       <c r="D158" t="n">
-        <v>0.016468000597223</v>
+        <v>0.0164680006067744</v>
       </c>
       <c r="E158" t="n">
-        <v>-7.14147975807253</v>
+        <v>-7.14147975807275</v>
       </c>
       <c r="F158" t="n">
-        <v>0.00047170640180761</v>
+        <v>0.00047170640238273</v>
       </c>
     </row>
     <row r="159">
@@ -4864,16 +4864,16 @@
         <v>309</v>
       </c>
       <c r="C159" t="n">
-        <v>1.75999878479781</v>
+        <v>1.75999878479768</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0000897009523991964</v>
+        <v>0.0000897009526312082</v>
       </c>
       <c r="E159" t="n">
-        <v>1.26401331365926</v>
+        <v>1.26401331365933</v>
       </c>
       <c r="F159" t="n">
-        <v>0.00529585606990391</v>
+        <v>0.00529585606856332</v>
       </c>
     </row>
     <row r="160">
@@ -4884,16 +4884,16 @@
         <v>311</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.98620630506794</v>
+        <v>-1.98620630506788</v>
       </c>
       <c r="D160" t="n">
-        <v>0.00176069746422757</v>
+        <v>0.00176069746501005</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.93882936968677</v>
+        <v>-1.93882936968664</v>
       </c>
       <c r="F160" t="n">
-        <v>0.00652602064958041</v>
+        <v>0.00652602065271969</v>
       </c>
     </row>
     <row r="161">
@@ -4904,16 +4904,16 @@
         <v>313</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.905363192563443</v>
+        <v>-0.905363192563491</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0159322591312191</v>
+        <v>0.0159322591376613</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.937537678747883</v>
+        <v>-0.937537678747647</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0000655325261077908</v>
+        <v>0.000065532525818741</v>
       </c>
     </row>
     <row r="162">
@@ -4924,16 +4924,16 @@
         <v>315</v>
       </c>
       <c r="C162" t="n">
-        <v>-2.12311522202931</v>
+        <v>-2.12311522202932</v>
       </c>
       <c r="D162" t="n">
-        <v>0.000074298849785531</v>
+        <v>0.0000742988498426985</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.28533025643183</v>
+        <v>-1.28533025643181</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0336781165950158</v>
+        <v>0.0336781166044477</v>
       </c>
     </row>
     <row r="163">
@@ -4944,16 +4944,16 @@
         <v>317</v>
       </c>
       <c r="C163" t="n">
-        <v>-2.60260349922314</v>
+        <v>-2.60260349922323</v>
       </c>
       <c r="D163" t="n">
-        <v>0.00618586265177153</v>
+        <v>0.00618586265352069</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.58282580831758</v>
+        <v>-1.58282580831746</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0201390757105818</v>
+        <v>0.0201390757226172</v>
       </c>
     </row>
     <row r="164">
@@ -4964,16 +4964,16 @@
         <v>319</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.95516160971716</v>
+        <v>-0.955161609717123</v>
       </c>
       <c r="D164" t="n">
-        <v>0.000000038798203420809</v>
+        <v>0.0000000387982035922453</v>
       </c>
       <c r="E164" t="n">
-        <v>-0.438560275170133</v>
+        <v>-0.438560275170669</v>
       </c>
       <c r="F164" t="n">
-        <v>0.000497143853141144</v>
+        <v>0.000497143846283066</v>
       </c>
     </row>
     <row r="165">
@@ -4984,16 +4984,16 @@
         <v>321</v>
       </c>
       <c r="C165" t="n">
-        <v>1.48583054453116</v>
+        <v>1.48583054453122</v>
       </c>
       <c r="D165" t="n">
-        <v>0.00000000000000000104359792094804</v>
+        <v>0.00000000000000000104359793065766</v>
       </c>
       <c r="E165" t="n">
-        <v>1.82783452194511</v>
+        <v>1.82783452194441</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000174788949194094</v>
+        <v>0.0000000000000000000000000000000000000000000000000000174788920325397</v>
       </c>
     </row>
     <row r="166">
@@ -5004,16 +5004,16 @@
         <v>323</v>
       </c>
       <c r="C166" t="n">
-        <v>0.405074932429483</v>
+        <v>0.405074932429518</v>
       </c>
       <c r="D166" t="n">
-        <v>0.000202639036162878</v>
+        <v>0.000202639036262381</v>
       </c>
       <c r="E166" t="n">
-        <v>0.700874026549663</v>
+        <v>0.700874026548828</v>
       </c>
       <c r="F166" t="n">
-        <v>0.000000000000000000000000000237224121437149</v>
+        <v>0.000000000000000000000000000237224051439829</v>
       </c>
     </row>
     <row r="167">
@@ -5024,16 +5024,16 @@
         <v>325</v>
       </c>
       <c r="C167" t="n">
-        <v>2.17657233754758</v>
+        <v>2.17657233754747</v>
       </c>
       <c r="D167" t="n">
-        <v>0.000000000574910627002003</v>
+        <v>0.000000000574910628150922</v>
       </c>
       <c r="E167" t="n">
-        <v>2.15138720268036</v>
+        <v>2.15138720268057</v>
       </c>
       <c r="F167" t="n">
-        <v>0.000000000000000391875905858928</v>
+        <v>0.000000000000000391875904179026</v>
       </c>
     </row>
     <row r="168">
@@ -5044,16 +5044,16 @@
         <v>327</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.706487783659372</v>
+        <v>-0.706487783659375</v>
       </c>
       <c r="D168" t="n">
-        <v>0.000000162125509947097</v>
+        <v>0.000000162125510880755</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.499366479812674</v>
+        <v>-0.499366479812627</v>
       </c>
       <c r="F168" t="n">
-        <v>0.00001898985378563</v>
+        <v>0.000018989853282059</v>
       </c>
     </row>
     <row r="169">
@@ -5064,16 +5064,16 @@
         <v>329</v>
       </c>
       <c r="C169" t="n">
-        <v>-2.17558547813628</v>
+        <v>-2.17558547813634</v>
       </c>
       <c r="D169" t="n">
-        <v>0.000000000000000000127581313405565</v>
+        <v>0.000000000000000000127581314150823</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.572435298967381</v>
+        <v>-0.572435298967211</v>
       </c>
       <c r="F169" t="n">
-        <v>0.00465844854551239</v>
+        <v>0.00465844852411916</v>
       </c>
     </row>
     <row r="170">
@@ -5087,13 +5087,13 @@
         <v>-0.828933869682563</v>
       </c>
       <c r="D170" t="n">
-        <v>0.00511068868531696</v>
+        <v>0.00511068868950681</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.641935953687537</v>
+        <v>-0.64193595368767</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00116642184835098</v>
+        <v>0.00116642184048893</v>
       </c>
     </row>
     <row r="171">
@@ -5104,16 +5104,16 @@
         <v>333</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.93329278297424</v>
+        <v>-1.93329278297428</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0107733329365903</v>
+        <v>0.0107733329401222</v>
       </c>
       <c r="E171" t="n">
-        <v>-1.34672862759765</v>
+        <v>-1.34672862759773</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0187355845233861</v>
+        <v>0.0187355845378794</v>
       </c>
     </row>
     <row r="172">
@@ -5124,16 +5124,16 @@
         <v>335</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.20887623313494</v>
+        <v>-1.2088762331349</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0380417383848276</v>
+        <v>0.0380417383953653</v>
       </c>
       <c r="E172" t="n">
-        <v>-1.327981491118</v>
+        <v>-1.32798149111801</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00109529473085012</v>
+        <v>0.00109529473114374</v>
       </c>
     </row>
     <row r="173">
@@ -5144,16 +5144,16 @@
         <v>337</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.45130063021784</v>
+        <v>-1.45130063021787</v>
       </c>
       <c r="D173" t="n">
-        <v>0.000000114085385653548</v>
+        <v>0.000000114085385912649</v>
       </c>
       <c r="E173" t="n">
-        <v>-0.587243968778045</v>
+        <v>-0.587243968778162</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0001763411636185</v>
+        <v>0.000176341161534114</v>
       </c>
     </row>
     <row r="174">
@@ -5164,16 +5164,16 @@
         <v>339</v>
       </c>
       <c r="C174" t="n">
-        <v>-2.53440660661665</v>
+        <v>-2.53440660661669</v>
       </c>
       <c r="D174" t="n">
-        <v>0.000000000000202689064693745</v>
+        <v>0.000000000000202689065261562</v>
       </c>
       <c r="E174" t="n">
-        <v>-0.555390166332223</v>
+        <v>-0.55539016633214</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0243282407528135</v>
+        <v>0.0243282406722742</v>
       </c>
     </row>
     <row r="175">
@@ -5184,16 +5184,16 @@
         <v>341</v>
       </c>
       <c r="C175" t="n">
-        <v>5.81652421168836</v>
+        <v>5.81652421168838</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0363663492500052</v>
+        <v>0.0363663492553873</v>
       </c>
       <c r="E175" t="n">
-        <v>5.65333635475166</v>
+        <v>5.65333635475163</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0452512617305857</v>
+        <v>0.0452512617621174</v>
       </c>
     </row>
     <row r="176">
@@ -5204,16 +5204,16 @@
         <v>343</v>
       </c>
       <c r="C176" t="n">
-        <v>0.706672926106514</v>
+        <v>0.706672926106518</v>
       </c>
       <c r="D176" t="n">
-        <v>0.00819976075016854</v>
+        <v>0.00819976075695928</v>
       </c>
       <c r="E176" t="n">
-        <v>0.562936518308902</v>
+        <v>0.562936518308861</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00752482856163701</v>
+        <v>0.00752482852761359</v>
       </c>
     </row>
     <row r="177">
@@ -5224,16 +5224,16 @@
         <v>345</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.512803144503841</v>
+        <v>-0.512803144503858</v>
       </c>
       <c r="D177" t="n">
-        <v>0.000000389067442835825</v>
+        <v>0.000000389067446442833</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.389936698582543</v>
+        <v>-0.389936698582332</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0000005506825549671</v>
+        <v>0.000000550682513921438</v>
       </c>
     </row>
     <row r="178">
@@ -5245,13 +5245,13 @@
         <v>-2.20946264294322</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0447041675238676</v>
+        <v>0.0447041675339023</v>
       </c>
       <c r="E178" t="n">
-        <v>-2.77736766342306</v>
+        <v>-2.77736766342317</v>
       </c>
       <c r="F178" t="n">
-        <v>0.00441287855567727</v>
+        <v>0.00441287856179363</v>
       </c>
     </row>
     <row r="179">
@@ -5260,16 +5260,16 @@
       </c>
       <c r="B179"/>
       <c r="C179" t="n">
-        <v>7.33325286074196</v>
+        <v>7.33325286074195</v>
       </c>
       <c r="D179" t="n">
-        <v>0.00094309770201988</v>
+        <v>0.000943097702304773</v>
       </c>
       <c r="E179" t="n">
-        <v>6.38533314504582</v>
+        <v>6.38533314504574</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0215055368287961</v>
+        <v>0.0215055368502788</v>
       </c>
     </row>
     <row r="180">
@@ -5280,16 +5280,16 @@
         <v>349</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.42831721815435</v>
+        <v>-0.42831721815437</v>
       </c>
       <c r="D180" t="n">
-        <v>0.034174984140913</v>
+        <v>0.0341749841790907</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.369492232888421</v>
+        <v>-0.369492232888486</v>
       </c>
       <c r="F180" t="n">
-        <v>0.000607160378637691</v>
+        <v>0.000607160363032128</v>
       </c>
     </row>
     <row r="181">
@@ -5300,16 +5300,16 @@
         <v>351</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.23669118234252</v>
+        <v>-1.2366911823425</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0000000000589229167956157</v>
+        <v>0.0000000000589229177488369</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.698720856338146</v>
+        <v>-0.698720856338221</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00000436596100822403</v>
+        <v>0.00000436596095121172</v>
       </c>
     </row>
     <row r="182">
@@ -5320,16 +5320,16 @@
         <v>353</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.33034251658444</v>
+        <v>-1.33034251658449</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00613169024952941</v>
+        <v>0.00613169025253905</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.17809168002806</v>
+        <v>-1.17809168002807</v>
       </c>
       <c r="F182" t="n">
-        <v>0.00949204554736326</v>
+        <v>0.00949204538150521</v>
       </c>
     </row>
     <row r="183">
@@ -5340,16 +5340,16 @@
         <v>355</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.3658439866711</v>
+        <v>-1.36584398667109</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0000855578703065337</v>
+        <v>0.0000855578705019726</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.07502955071312</v>
+        <v>-1.07502955071315</v>
       </c>
       <c r="F183" t="n">
-        <v>0.000437642012758771</v>
+        <v>0.000437642001424529</v>
       </c>
     </row>
     <row r="184">
@@ -5358,16 +5358,16 @@
       </c>
       <c r="B184"/>
       <c r="C184" t="n">
-        <v>0.722690936329115</v>
+        <v>0.722690936329106</v>
       </c>
       <c r="D184" t="n">
-        <v>0.00185442245095708</v>
+        <v>0.00185442245322116</v>
       </c>
       <c r="E184" t="n">
-        <v>0.46475850710899</v>
+        <v>0.464758507109211</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0296754581894369</v>
+        <v>0.02967545808474</v>
       </c>
     </row>
     <row r="185">
@@ -5376,16 +5376,16 @@
       </c>
       <c r="B185"/>
       <c r="C185" t="n">
-        <v>1.23508983211086</v>
+        <v>1.23508983211077</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0000053964659371863</v>
+        <v>0.00000539646594946762</v>
       </c>
       <c r="E185" t="n">
-        <v>0.632248234297519</v>
+        <v>0.632248234297763</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0353826506949856</v>
+        <v>0.0353826506509035</v>
       </c>
     </row>
     <row r="186">
@@ -5396,16 +5396,16 @@
         <v>359</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.3028842045336</v>
+        <v>-1.30288420453366</v>
       </c>
       <c r="D186" t="n">
-        <v>0.000553059346061241</v>
+        <v>0.000553059347150411</v>
       </c>
       <c r="E186" t="n">
-        <v>-0.786777821716293</v>
+        <v>-0.786777821716224</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0140285727864497</v>
+        <v>0.014028572776512</v>
       </c>
     </row>
     <row r="187">
@@ -5416,16 +5416,16 @@
         <v>361</v>
       </c>
       <c r="C187" t="n">
-        <v>0.733211296433315</v>
+        <v>0.733211296433333</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0000855578703065337</v>
+        <v>0.0000855578705019726</v>
       </c>
       <c r="E187" t="n">
-        <v>0.67314618022634</v>
+        <v>0.673146180226332</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0000655175130559804</v>
+        <v>0.0000655175123793027</v>
       </c>
     </row>
     <row r="188">
@@ -5436,16 +5436,16 @@
         <v>363</v>
       </c>
       <c r="C188" t="n">
-        <v>1.64629175888101</v>
+        <v>1.64629175888099</v>
       </c>
       <c r="D188" t="n">
-        <v>0.00248598872787861</v>
+        <v>0.00248598872913893</v>
       </c>
       <c r="E188" t="n">
-        <v>1.29995705280675</v>
+        <v>1.29995705280666</v>
       </c>
       <c r="F188" t="n">
-        <v>0.00682368769649455</v>
+        <v>0.00682368770212244</v>
       </c>
     </row>
     <row r="189">
@@ -5456,16 +5456,16 @@
         <v>365</v>
       </c>
       <c r="C189" t="n">
-        <v>0.743060168340834</v>
+        <v>0.743060168340849</v>
       </c>
       <c r="D189" t="n">
-        <v>0.000000000000000000000000067005252085296</v>
+        <v>0.0000000000000000000000000670052556377061</v>
       </c>
       <c r="E189" t="n">
-        <v>0.61071879841311</v>
+        <v>0.610718798413048</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0000000000000000000000826194027152521</v>
+        <v>0.0000000000000000000000826193789285307</v>
       </c>
     </row>
     <row r="190">
@@ -5476,16 +5476,16 @@
         <v>367</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.667941958706433</v>
+        <v>-0.667941958706469</v>
       </c>
       <c r="D190" t="n">
-        <v>0.00172306647121307</v>
+        <v>0.00172306648128909</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.533590039823807</v>
+        <v>-0.533590039823577</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00000455395351756076</v>
+        <v>0.00000455395339878458</v>
       </c>
     </row>
     <row r="191">
@@ -5496,16 +5496,16 @@
         <v>369</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5202451686657</v>
+        <v>0.520245168665732</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0148356830411003</v>
+        <v>0.0148356830563215</v>
       </c>
       <c r="E191" t="n">
-        <v>0.426782378591657</v>
+        <v>0.426782378591553</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0394358198262211</v>
+        <v>0.0394358196491522</v>
       </c>
     </row>
     <row r="192">
@@ -5516,16 +5516,16 @@
         <v>371</v>
       </c>
       <c r="C192" t="n">
-        <v>2.83460491939839</v>
+        <v>2.83460491939856</v>
       </c>
       <c r="D192" t="n">
-        <v>0.000304843009498468</v>
+        <v>0.000304843009669723</v>
       </c>
       <c r="E192" t="n">
-        <v>2.73403229265072</v>
+        <v>2.73403229265128</v>
       </c>
       <c r="F192" t="n">
-        <v>0.000144131491288761</v>
+        <v>0.00014413149153696</v>
       </c>
     </row>
     <row r="193">
@@ -5539,13 +5539,13 @@
         <v>-3.2959812265164</v>
       </c>
       <c r="D193" t="n">
-        <v>0.00540965289264336</v>
+        <v>0.00540965289402732</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.01643333638682</v>
+        <v>-1.01643333638684</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00000230235958779035</v>
+        <v>0.00000230235957650297</v>
       </c>
     </row>
     <row r="194">
@@ -5556,16 +5556,16 @@
         <v>375</v>
       </c>
       <c r="C194" t="n">
-        <v>3.59413377169993</v>
+        <v>3.59413377170023</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0149932019072613</v>
+        <v>0.0149932019104563</v>
       </c>
       <c r="E194" t="n">
-        <v>3.58317555386008</v>
+        <v>3.58317555386264</v>
       </c>
       <c r="F194" t="n">
-        <v>0.000256365611475179</v>
+        <v>0.000256365611980773</v>
       </c>
     </row>
     <row r="195">
@@ -5576,16 +5576,16 @@
         <v>377</v>
       </c>
       <c r="C195" t="n">
-        <v>6.57045356184594</v>
+        <v>6.57045356184592</v>
       </c>
       <c r="D195" t="n">
-        <v>0.00216853372268397</v>
+        <v>0.00216853372554191</v>
       </c>
       <c r="E195" t="n">
-        <v>6.53872540761495</v>
+        <v>6.53872540761488</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00278584214793785</v>
+        <v>0.0027858421501516</v>
       </c>
     </row>
     <row r="196">
@@ -5596,16 +5596,16 @@
         <v>379</v>
       </c>
       <c r="C196" t="n">
-        <v>0.942501604210244</v>
+        <v>0.942501604210254</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0001718713328866</v>
+        <v>0.000171871333127937</v>
       </c>
       <c r="E196" t="n">
-        <v>0.48211746833137</v>
+        <v>0.48211746833124</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0473845558146092</v>
+        <v>0.0473845557005141</v>
       </c>
     </row>
     <row r="197">
@@ -5616,16 +5616,16 @@
         <v>381</v>
       </c>
       <c r="C197" t="n">
-        <v>1.7453810031369</v>
+        <v>1.74538100313696</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000868650404970363</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000868650483802718</v>
       </c>
       <c r="E197" t="n">
-        <v>0.892827071246872</v>
+        <v>0.892827071246378</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0000000000000000000000000000000594082244056305</v>
+        <v>0.0000000000000000000000000000000594082109354572</v>
       </c>
     </row>
     <row r="198">
@@ -5636,16 +5636,16 @@
         <v>383</v>
       </c>
       <c r="C198" t="n">
-        <v>0.407722562798127</v>
+        <v>0.407722562798184</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0463475753176936</v>
+        <v>0.0463475753590481</v>
       </c>
       <c r="E198" t="n">
-        <v>0.438166004528408</v>
+        <v>0.438166004527978</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0133689615822188</v>
+        <v>0.0133689614783255</v>
       </c>
     </row>
     <row r="199">
@@ -5656,16 +5656,16 @@
         <v>385</v>
       </c>
       <c r="C199" t="n">
-        <v>1.45924786909848</v>
+        <v>1.45924786909843</v>
       </c>
       <c r="D199" t="n">
-        <v>0.00549369825136163</v>
+        <v>0.00549369825366598</v>
       </c>
       <c r="E199" t="n">
-        <v>1.20168067279379</v>
+        <v>1.20168067279374</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0272391572537347</v>
+        <v>0.0272391572634704</v>
       </c>
     </row>
     <row r="200">
@@ -5676,16 +5676,16 @@
         <v>387</v>
       </c>
       <c r="C200" t="n">
-        <v>0.84759927596192</v>
+        <v>0.847599275961949</v>
       </c>
       <c r="D200" t="n">
-        <v>0.000000371441115902274</v>
+        <v>0.000000371441117399814</v>
       </c>
       <c r="E200" t="n">
-        <v>0.474506488983597</v>
+        <v>0.474506488983376</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00465844854551239</v>
+        <v>0.00465844852411916</v>
       </c>
     </row>
     <row r="201">
@@ -5696,16 +5696,16 @@
         <v>389</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.989868044286002</v>
+        <v>-0.989868044285986</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0000053964659371863</v>
+        <v>0.00000539646594946762</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.613246833772201</v>
+        <v>-0.613246833772407</v>
       </c>
       <c r="F201" t="n">
-        <v>0.00168393153710573</v>
+        <v>0.00168393152561571</v>
       </c>
     </row>
     <row r="202">
@@ -5716,16 +5716,16 @@
         <v>391</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.778062375437841</v>
+        <v>-0.778062375437871</v>
       </c>
       <c r="D202" t="n">
-        <v>0.00023524785536785</v>
+        <v>0.000235247855776058</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.503120369643909</v>
+        <v>-0.503120369643866</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0164444088316076</v>
+        <v>0.0164444087546776</v>
       </c>
     </row>
     <row r="203">
@@ -5736,16 +5736,16 @@
         <v>393</v>
       </c>
       <c r="C203" t="n">
-        <v>1.5160770690351</v>
+        <v>1.51607706903508</v>
       </c>
       <c r="D203" t="n">
-        <v>0.000174838750123764</v>
+        <v>0.000174838750312555</v>
       </c>
       <c r="E203" t="n">
-        <v>1.24956760896778</v>
+        <v>1.24956760896777</v>
       </c>
       <c r="F203" t="n">
-        <v>0.000979386928563347</v>
+        <v>0.000979386928542636</v>
       </c>
     </row>
     <row r="204">
@@ -5756,16 +5756,16 @@
         <v>395</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.66355278982991</v>
+        <v>-1.66355278982988</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0000000216092194275925</v>
+        <v>0.0000000216092194722292</v>
       </c>
       <c r="E204" t="n">
-        <v>-1.3049254700243</v>
+        <v>-1.3049254700242</v>
       </c>
       <c r="F204" t="n">
-        <v>0.000000106940268923462</v>
+        <v>0.000000106940268424333</v>
       </c>
     </row>
     <row r="205">
@@ -5776,16 +5776,16 @@
         <v>397</v>
       </c>
       <c r="C205" t="n">
-        <v>2.43044104598723</v>
+        <v>2.43044104598714</v>
       </c>
       <c r="D205" t="n">
-        <v>0.00000441813323372375</v>
+        <v>0.00000441813323757873</v>
       </c>
       <c r="E205" t="n">
-        <v>1.43061989314395</v>
+        <v>1.43061989314382</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0315361030986933</v>
+        <v>0.031536103113814</v>
       </c>
     </row>
     <row r="206">
@@ -5796,16 +5796,16 @@
         <v>399</v>
       </c>
       <c r="C206" t="n">
-        <v>0.363402587933451</v>
+        <v>0.363402587933388</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0183846184566739</v>
+        <v>0.0183846184902512</v>
       </c>
       <c r="E206" t="n">
-        <v>0.507360209228246</v>
+        <v>0.507360209229183</v>
       </c>
       <c r="F206" t="n">
-        <v>0.00000000995805604063615</v>
+        <v>0.00000000995805536628599</v>
       </c>
     </row>
     <row r="207">
@@ -5816,16 +5816,16 @@
         <v>401</v>
       </c>
       <c r="C207" t="n">
-        <v>1.24765209204083</v>
+        <v>1.24765209204092</v>
       </c>
       <c r="D207" t="n">
-        <v>0.00000000000000902995544493411</v>
+        <v>0.00000000000000902995551736685</v>
       </c>
       <c r="E207" t="n">
-        <v>1.20306808934333</v>
+        <v>1.20306808934278</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0000000000000000018635911416456</v>
+        <v>0.0000000000000000018635910510998</v>
       </c>
     </row>
     <row r="208">
@@ -5836,16 +5836,16 @@
         <v>403</v>
       </c>
       <c r="C208" t="n">
-        <v>0.34622284356104</v>
+        <v>0.346222843561043</v>
       </c>
       <c r="D208" t="n">
-        <v>0.00165267317143326</v>
+        <v>0.0016526731794224</v>
       </c>
       <c r="E208" t="n">
-        <v>0.325658364169866</v>
+        <v>0.325658364169861</v>
       </c>
       <c r="F208" t="n">
-        <v>0.000000872599929573605</v>
+        <v>0.000000872599877543632</v>
       </c>
     </row>
     <row r="209">
@@ -5856,16 +5856,16 @@
         <v>405</v>
       </c>
       <c r="C209" t="n">
-        <v>0.780165737387013</v>
+        <v>0.780165737386997</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0276774690421015</v>
+        <v>0.0276774690548547</v>
       </c>
       <c r="E209" t="n">
-        <v>0.80523917524534</v>
+        <v>0.80523917524555</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00203824858087568</v>
+        <v>0.00203824857529195</v>
       </c>
     </row>
     <row r="210">
@@ -5876,16 +5876,16 @@
         <v>407</v>
       </c>
       <c r="C210" t="n">
-        <v>1.82451598474212</v>
+        <v>1.82451598474209</v>
       </c>
       <c r="D210" t="n">
-        <v>0.000271871600077099</v>
+        <v>0.000271871600598254</v>
       </c>
       <c r="E210" t="n">
-        <v>1.47687079440055</v>
+        <v>1.47687079440052</v>
       </c>
       <c r="F210" t="n">
-        <v>0.001675617190549</v>
+        <v>0.00167561719118886</v>
       </c>
     </row>
     <row r="211">
@@ -5896,16 +5896,16 @@
         <v>409</v>
       </c>
       <c r="C211" t="n">
-        <v>1.30435362319795</v>
+        <v>1.30435362319797</v>
       </c>
       <c r="D211" t="n">
-        <v>0.000000135613418321446</v>
+        <v>0.000000135613418640693</v>
       </c>
       <c r="E211" t="n">
-        <v>0.837360949220989</v>
+        <v>0.837360949220994</v>
       </c>
       <c r="F211" t="n">
-        <v>0.000576640339687468</v>
+        <v>0.000576640338052028</v>
       </c>
     </row>
     <row r="212">
@@ -5916,16 +5916,16 @@
         <v>411</v>
       </c>
       <c r="C212" t="n">
-        <v>1.84320736393385</v>
+        <v>1.84320736393402</v>
       </c>
       <c r="D212" t="n">
-        <v>0.000000000000198380040959088</v>
+        <v>0.000000000000198380041731603</v>
       </c>
       <c r="E212" t="n">
-        <v>1.04013618213203</v>
+        <v>1.0401361821316</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0000811752832939506</v>
+        <v>0.0000811752830588823</v>
       </c>
     </row>
     <row r="213">
@@ -5936,16 +5936,16 @@
         <v>413</v>
       </c>
       <c r="C213" t="n">
-        <v>0.634614368089495</v>
+        <v>0.634614368089494</v>
       </c>
       <c r="D213" t="n">
-        <v>0.00000000000000000284243191106079</v>
+        <v>0.00000000000000000284243201640169</v>
       </c>
       <c r="E213" t="n">
-        <v>0.318894043780034</v>
+        <v>0.31889404377983</v>
       </c>
       <c r="F213" t="n">
-        <v>0.000000000576400112826719</v>
+        <v>0.000000000576399998061246</v>
       </c>
     </row>
     <row r="214">
@@ -5956,16 +5956,16 @@
         <v>415</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.33928232923455</v>
+        <v>-2.33928232923451</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0215074040293144</v>
+        <v>0.0215074040378063</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.56608683082339</v>
+        <v>-1.56608683082349</v>
       </c>
       <c r="F214" t="n">
-        <v>0.000983671347401538</v>
+        <v>0.000983671348378749</v>
       </c>
     </row>
     <row r="215">
@@ -5976,16 +5976,16 @@
         <v>417</v>
       </c>
       <c r="C215" t="n">
-        <v>0.576311887917273</v>
+        <v>0.576311887917187</v>
       </c>
       <c r="D215" t="n">
-        <v>0.000447884426339528</v>
+        <v>0.000447884427426522</v>
       </c>
       <c r="E215" t="n">
-        <v>0.454084739267464</v>
+        <v>0.454084739268352</v>
       </c>
       <c r="F215" t="n">
-        <v>0.00149704511295897</v>
+        <v>0.00149704509306965</v>
       </c>
     </row>
     <row r="216">
@@ -5996,16 +5996,16 @@
         <v>419</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.23028894234219</v>
+        <v>-1.23028894234223</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0015895676265432</v>
+        <v>0.00158956762761815</v>
       </c>
       <c r="E216" t="n">
         <v>-0.614256946288612</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0397612056808152</v>
+        <v>0.039761205632446</v>
       </c>
     </row>
     <row r="217">
@@ -6016,16 +6016,16 @@
         <v>421</v>
       </c>
       <c r="C217" t="n">
-        <v>-4.76889234736185</v>
+        <v>-4.76889234736232</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0177218255494132</v>
+        <v>0.0177218255547748</v>
       </c>
       <c r="E217" t="n">
-        <v>-4.352525130409</v>
+        <v>-4.35252513041061</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0183898143720335</v>
+        <v>0.0183898143928372</v>
       </c>
     </row>
     <row r="218">
@@ -6036,16 +6036,16 @@
         <v>423</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.30109533589928</v>
+        <v>-1.30109533589929</v>
       </c>
       <c r="D218" t="n">
-        <v>0.000000000000000000000000000000000000000000000182307020392033</v>
+        <v>0.000000000000000000000000000000000000000000000182307031057241</v>
       </c>
       <c r="E218" t="n">
-        <v>-0.256302613614924</v>
+        <v>-0.256302613614934</v>
       </c>
       <c r="F218" t="n">
-        <v>0.00261394688477121</v>
+        <v>0.00261394678265909</v>
       </c>
     </row>
     <row r="219">
@@ -6056,16 +6056,16 @@
         <v>425</v>
       </c>
       <c r="C219" t="n">
-        <v>0.402803198733884</v>
+        <v>0.402803198733881</v>
       </c>
       <c r="D219" t="n">
-        <v>0.000228820535298453</v>
+        <v>0.000228820536542899</v>
       </c>
       <c r="E219" t="n">
-        <v>0.236562033703506</v>
+        <v>0.236562033703844</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00261619995712983</v>
+        <v>0.00261619984345773</v>
       </c>
     </row>
     <row r="220">
@@ -6079,13 +6079,13 @@
         <v>-1.31855265860738</v>
       </c>
       <c r="D220" t="n">
-        <v>0.000648914316273035</v>
+        <v>0.000648914316778209</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.852391621116702</v>
+        <v>-0.852391621116757</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0112194812124938</v>
+        <v>0.0112194812043546</v>
       </c>
     </row>
     <row r="221">
@@ -6096,16 +6096,16 @@
         <v>429</v>
       </c>
       <c r="C221" t="n">
-        <v>0.750290080959343</v>
+        <v>0.750290080959326</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0156315387395852</v>
+        <v>0.0156315387476092</v>
       </c>
       <c r="E221" t="n">
-        <v>0.913189679575558</v>
+        <v>0.913189679575715</v>
       </c>
       <c r="F221" t="n">
-        <v>0.00000821692113068679</v>
+        <v>0.00000821692020048838</v>
       </c>
     </row>
     <row r="222">
@@ -6114,16 +6114,16 @@
       </c>
       <c r="B222"/>
       <c r="C222" t="n">
-        <v>1.02080834114595</v>
+        <v>1.02080834114593</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0083373464197644</v>
+        <v>0.00833734642446902</v>
       </c>
       <c r="E222" t="n">
-        <v>0.988034820265983</v>
+        <v>0.988034820265992</v>
       </c>
       <c r="F222" t="n">
-        <v>0.00144354681395254</v>
+        <v>0.00144354681310147</v>
       </c>
     </row>
     <row r="223">
@@ -6132,16 +6132,16 @@
       </c>
       <c r="B223"/>
       <c r="C223" t="n">
-        <v>0.888435659284865</v>
+        <v>0.888435659284912</v>
       </c>
       <c r="D223" t="n">
-        <v>0.00000493002595016229</v>
+        <v>0.00000493002596332566</v>
       </c>
       <c r="E223" t="n">
-        <v>0.551325908795829</v>
+        <v>0.551325908795804</v>
       </c>
       <c r="F223" t="n">
-        <v>0.045137212417513</v>
+        <v>0.0451372123072371</v>
       </c>
     </row>
     <row r="224">
@@ -6152,16 +6152,16 @@
         <v>433</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.756421725299743</v>
+        <v>-0.756421725299747</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0000584310414296562</v>
+        <v>0.0000584310414932925</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.347870683975628</v>
+        <v>-0.347870683975905</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0176761841548847</v>
+        <v>0.0176761841081645</v>
       </c>
     </row>
     <row r="225">
@@ -6172,16 +6172,16 @@
         <v>435</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.47272939694696</v>
+        <v>-0.472729396946939</v>
       </c>
       <c r="D225" t="n">
-        <v>0.000000153655043168391</v>
+        <v>0.000000153655044153724</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.195661774768477</v>
+        <v>-0.195661774768702</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0283371314598654</v>
+        <v>0.028337130607981</v>
       </c>
     </row>
     <row r="226">
@@ -6190,16 +6190,16 @@
       </c>
       <c r="B226"/>
       <c r="C226" t="n">
-        <v>1.8836544565917</v>
+        <v>1.88365445659178</v>
       </c>
       <c r="D226" t="n">
-        <v>0.000000000000000000422859337469837</v>
+        <v>0.000000000000000000422859340347448</v>
       </c>
       <c r="E226" t="n">
-        <v>1.76906873099228</v>
+        <v>1.76906873099183</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0000000000000000000000000252429399823053</v>
+        <v>0.0000000000000000000000000252429390097579</v>
       </c>
     </row>
     <row r="227">
@@ -6210,16 +6210,16 @@
         <v>438</v>
       </c>
       <c r="C227" t="n">
-        <v>-1.54984038640548</v>
+        <v>-1.54984038640542</v>
       </c>
       <c r="D227" t="n">
-        <v>0.000000863520112966828</v>
+        <v>0.000000863520114348648</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.749684588173617</v>
+        <v>-0.749684588173782</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0126255973346927</v>
+        <v>0.0126255972060296</v>
       </c>
     </row>
     <row r="228">
@@ -6230,16 +6230,16 @@
         <v>440</v>
       </c>
       <c r="C228" t="n">
-        <v>0.95958964855795</v>
+        <v>0.959589648557969</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0039283626481581</v>
+        <v>0.003928362650932</v>
       </c>
       <c r="E228" t="n">
-        <v>0.853932309970732</v>
+        <v>0.853932309970599</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0000781136690854806</v>
+        <v>0.0000781136687790084</v>
       </c>
     </row>
     <row r="229">
@@ -6250,16 +6250,16 @@
         <v>442</v>
       </c>
       <c r="C229" t="n">
-        <v>1.00397420393393</v>
+        <v>1.00397420393387</v>
       </c>
       <c r="D229" t="n">
-        <v>0.000000403870697920385</v>
+        <v>0.000000403870699187437</v>
       </c>
       <c r="E229" t="n">
-        <v>0.446176212861613</v>
+        <v>0.446176212862177</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0157505144631227</v>
+        <v>0.0157505143599357</v>
       </c>
     </row>
     <row r="230">
@@ -6270,16 +6270,16 @@
         <v>444</v>
       </c>
       <c r="C230" t="n">
-        <v>1.01133925856318</v>
+        <v>1.0113392585632</v>
       </c>
       <c r="D230" t="n">
-        <v>0.00000000000000404329366800343</v>
+        <v>0.00000000000000404329371431947</v>
       </c>
       <c r="E230" t="n">
-        <v>0.368981206076778</v>
+        <v>0.368981206076481</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0064369916970497</v>
+        <v>0.00643699169975997</v>
       </c>
     </row>
     <row r="231">
@@ -6290,16 +6290,16 @@
         <v>446</v>
       </c>
       <c r="C231" t="n">
-        <v>1.38601697711233</v>
+        <v>1.38601697711234</v>
       </c>
       <c r="D231" t="n">
-        <v>0.000000000000198380040959088</v>
+        <v>0.000000000000198380041731603</v>
       </c>
       <c r="E231" t="n">
-        <v>0.778876518725591</v>
+        <v>0.778876518725441</v>
       </c>
       <c r="F231" t="n">
-        <v>0.000026903883985871</v>
+        <v>0.0000269038837545567</v>
       </c>
     </row>
     <row r="232">
@@ -6308,16 +6308,16 @@
       </c>
       <c r="B232"/>
       <c r="C232" t="n">
-        <v>0.982872102407182</v>
+        <v>0.982872102407156</v>
       </c>
       <c r="D232" t="n">
-        <v>0.000000740971576154429</v>
+        <v>0.000000740971578292181</v>
       </c>
       <c r="E232" t="n">
-        <v>0.837902550009244</v>
+        <v>0.837902550009329</v>
       </c>
       <c r="F232" t="n">
-        <v>0.00000285573900514244</v>
+        <v>0.00000285573897431123</v>
       </c>
     </row>
     <row r="233">
@@ -6326,16 +6326,16 @@
       </c>
       <c r="B233"/>
       <c r="C233" t="n">
-        <v>-6.68520296448659</v>
+        <v>-6.68520296448657</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0133582360391054</v>
+        <v>0.0133582360419271</v>
       </c>
       <c r="E233" t="n">
-        <v>-5.7268208184713</v>
+        <v>-5.72682081847117</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0371919550271979</v>
+        <v>0.037191955051481</v>
       </c>
     </row>
     <row r="234">
@@ -6346,16 +6346,16 @@
         <v>450</v>
       </c>
       <c r="C234" t="n">
-        <v>0.950640605874266</v>
+        <v>0.95064060587424</v>
       </c>
       <c r="D234" t="n">
-        <v>0.000000000000810224981990019</v>
+        <v>0.000000000000810224990797071</v>
       </c>
       <c r="E234" t="n">
-        <v>0.398634007157382</v>
+        <v>0.398634007157858</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0000534071654221508</v>
+        <v>0.0000534071634398568</v>
       </c>
     </row>
     <row r="235">
@@ -6366,16 +6366,16 @@
         <v>452</v>
       </c>
       <c r="C235" t="n">
-        <v>0.231410426563594</v>
+        <v>0.231410426563581</v>
       </c>
       <c r="D235" t="n">
-        <v>0.0160741739081323</v>
+        <v>0.0160741739705078</v>
       </c>
       <c r="E235" t="n">
-        <v>0.241685831520895</v>
+        <v>0.24168583152124</v>
       </c>
       <c r="F235" t="n">
-        <v>0.000162964180273372</v>
+        <v>0.000162964179045201</v>
       </c>
     </row>
     <row r="236">
@@ -6386,16 +6386,16 @@
         <v>454</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.898945930119844</v>
+        <v>-0.898945930119845</v>
       </c>
       <c r="D236" t="n">
-        <v>0.000000173998029963688</v>
+        <v>0.000000173998030638237</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.703432757809729</v>
+        <v>-0.703432757809888</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0000119694643715975</v>
+        <v>0.0000119694630996184</v>
       </c>
     </row>
     <row r="237">
@@ -6406,16 +6406,16 @@
         <v>456</v>
       </c>
       <c r="C237" t="n">
-        <v>0.607045130311452</v>
+        <v>0.60704513031146</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0137784610232724</v>
+        <v>0.0137784610279031</v>
       </c>
       <c r="E237" t="n">
-        <v>0.792668107639939</v>
+        <v>0.792668107639592</v>
       </c>
       <c r="F237" t="n">
-        <v>0.000000060181069655876</v>
+        <v>0.0000000601810686343622</v>
       </c>
     </row>
     <row r="238">
@@ -6426,16 +6426,16 @@
         <v>458</v>
       </c>
       <c r="C238" t="n">
-        <v>-1.23411581620598</v>
+        <v>-1.23411581620599</v>
       </c>
       <c r="D238" t="n">
-        <v>0.000617070846673822</v>
+        <v>0.000617070847174299</v>
       </c>
       <c r="E238" t="n">
-        <v>-1.11532485451114</v>
+        <v>-1.11532485451126</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0000202631726362976</v>
+        <v>0.0000202631725853848</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
+++ b/output/Restab_D62_NTCnoRAPA_noDIFF_noRAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="474">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -221,6 +221,9 @@
     <t xml:space="preserve">84858</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF503</t>
+  </si>
+  <si>
     <t xml:space="preserve">3988</t>
   </si>
   <si>
@@ -605,6 +608,9 @@
     <t xml:space="preserve">9953</t>
   </si>
   <si>
+    <t xml:space="preserve">HS3ST3B1</t>
+  </si>
+  <si>
     <t xml:space="preserve">5376</t>
   </si>
   <si>
@@ -650,6 +656,9 @@
     <t xml:space="preserve">283991</t>
   </si>
   <si>
+    <t xml:space="preserve">UBALD2</t>
+  </si>
+  <si>
     <t xml:space="preserve">332</t>
   </si>
   <si>
@@ -677,6 +686,9 @@
     <t xml:space="preserve">115106</t>
   </si>
   <si>
+    <t xml:space="preserve">HAUS1</t>
+  </si>
+  <si>
     <t xml:space="preserve">4645</t>
   </si>
   <si>
@@ -722,6 +734,9 @@
     <t xml:space="preserve">23645</t>
   </si>
   <si>
+    <t xml:space="preserve">PPP1R15A</t>
+  </si>
+  <si>
     <t xml:space="preserve">79784</t>
   </si>
   <si>
@@ -731,6 +746,9 @@
     <t xml:space="preserve">151354</t>
   </si>
   <si>
+    <t xml:space="preserve">LRATD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">6432</t>
   </si>
   <si>
@@ -740,6 +758,9 @@
     <t xml:space="preserve">91461</t>
   </si>
   <si>
+    <t xml:space="preserve">PKDCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">25927</t>
   </si>
   <si>
@@ -851,9 +872,15 @@
     <t xml:space="preserve">116448</t>
   </si>
   <si>
+    <t xml:space="preserve">OLIG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">5121</t>
   </si>
   <si>
+    <t xml:space="preserve">PCP4</t>
+  </si>
+  <si>
     <t xml:space="preserve">1826</t>
   </si>
   <si>
@@ -875,6 +902,9 @@
     <t xml:space="preserve">23467</t>
   </si>
   <si>
+    <t xml:space="preserve">NPTXR</t>
+  </si>
+  <si>
     <t xml:space="preserve">10752</t>
   </si>
   <si>
@@ -1085,9 +1115,15 @@
     <t xml:space="preserve">84418</t>
   </si>
   <si>
+    <t xml:space="preserve">CYSTM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">113829</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC35A4</t>
+  </si>
+  <si>
     <t xml:space="preserve">57717</t>
   </si>
   <si>
@@ -1307,9 +1343,15 @@
     <t xml:space="preserve">169044</t>
   </si>
   <si>
+    <t xml:space="preserve">COL22A1</t>
+  </si>
+  <si>
     <t xml:space="preserve">340371</t>
   </si>
   <si>
+    <t xml:space="preserve">NRBP2</t>
+  </si>
+  <si>
     <t xml:space="preserve">11168</t>
   </si>
   <si>
@@ -1323,6 +1365,9 @@
   </si>
   <si>
     <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABBR2</t>
   </si>
   <si>
     <t xml:space="preserve">10592</t>
@@ -2364,7 +2409,9 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33"/>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
       <c r="C33" t="n">
         <v>1.82453164700797</v>
       </c>
@@ -2380,10 +2427,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="n">
         <v>1.02342701270778</v>
@@ -2400,10 +2447,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
         <v>0.624398829407018</v>
@@ -2420,10 +2467,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" t="n">
         <v>1.71459254413187</v>
@@ -2440,10 +2487,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" t="n">
         <v>1.10013368077797</v>
@@ -2460,10 +2507,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
         <v>-0.843171201661726</v>
@@ -2480,10 +2527,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="n">
         <v>0.533112971451185</v>
@@ -2500,10 +2547,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="n">
         <v>1.17799032349276</v>
@@ -2520,10 +2567,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" t="n">
         <v>1.8421462685837</v>
@@ -2540,10 +2587,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" t="n">
         <v>0.402764174507098</v>
@@ -2560,10 +2607,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" t="n">
         <v>-1.01231109961746</v>
@@ -2580,10 +2627,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="n">
         <v>1.2635288946866</v>
@@ -2600,10 +2647,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" t="n">
         <v>-0.881631373314871</v>
@@ -2620,10 +2667,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C46" t="n">
         <v>-2.35671175705744</v>
@@ -2640,10 +2687,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C47" t="n">
         <v>1.93330953757495</v>
@@ -2660,10 +2707,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" t="n">
         <v>-0.918108386194097</v>
@@ -2680,10 +2727,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
         <v>1.45917084256009</v>
@@ -2700,10 +2747,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" t="n">
         <v>1.58518679581875</v>
@@ -2720,10 +2767,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" t="n">
         <v>0.730751049453731</v>
@@ -2740,10 +2787,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" t="n">
         <v>1.72463071542725</v>
@@ -2760,10 +2807,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" t="n">
         <v>0.879868399965666</v>
@@ -2780,10 +2827,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C54" t="n">
         <v>1.11737703628914</v>
@@ -2800,10 +2847,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" t="n">
         <v>0.654314375414407</v>
@@ -2820,10 +2867,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C56" t="n">
         <v>-0.461705449897527</v>
@@ -2840,10 +2887,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" t="n">
         <v>0.647951884503282</v>
@@ -2860,10 +2907,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" t="n">
         <v>1.55996023107655</v>
@@ -2880,10 +2927,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" t="n">
         <v>0.901907226311842</v>
@@ -2900,10 +2947,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" t="n">
         <v>0.644924662416603</v>
@@ -2920,10 +2967,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" t="n">
         <v>0.671934634113001</v>
@@ -2940,10 +2987,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" t="n">
         <v>-1.61353762828811</v>
@@ -2960,10 +3007,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C63" t="n">
         <v>-0.787837237659089</v>
@@ -2980,10 +3027,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C64" t="n">
         <v>0.764062143174288</v>
@@ -3000,10 +3047,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" t="n">
         <v>-0.72852740676142</v>
@@ -3020,10 +3067,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" t="n">
         <v>0.561351695447783</v>
@@ -3040,10 +3087,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" t="n">
         <v>0.410173261453428</v>
@@ -3060,7 +3107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="n">
@@ -3078,10 +3125,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
         <v>-1.03069933534258</v>
@@ -3098,10 +3145,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" t="n">
         <v>-0.682435550365289</v>
@@ -3118,10 +3165,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" t="n">
         <v>-1.38113823235248</v>
@@ -3138,10 +3185,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="n">
         <v>0.720101876747238</v>
@@ -3158,10 +3205,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" t="n">
         <v>-1.71747721335533</v>
@@ -3178,10 +3225,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>1.62463089566868</v>
@@ -3198,10 +3245,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>2.22989812084603</v>
@@ -3218,10 +3265,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
         <v>2.16169926262268</v>
@@ -3238,10 +3285,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
         <v>-1.32135902532385</v>
@@ -3258,10 +3305,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>-1.36823931451566</v>
@@ -3278,10 +3325,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C79" t="n">
         <v>0.652519568198257</v>
@@ -3298,10 +3345,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
         <v>0.396419695899755</v>
@@ -3318,10 +3365,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" t="n">
         <v>0.516354931262637</v>
@@ -3338,10 +3385,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C82" t="n">
         <v>-1.61925030779237</v>
@@ -3358,10 +3405,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C83" t="n">
         <v>1.45820382044551</v>
@@ -3378,10 +3425,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C84" t="n">
         <v>0.691021748637021</v>
@@ -3398,10 +3445,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" t="n">
         <v>-0.745408887480836</v>
@@ -3418,10 +3465,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C86" t="n">
         <v>1.61795623059958</v>
@@ -3438,10 +3485,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" t="n">
         <v>0.705339373062958</v>
@@ -3458,10 +3505,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" t="n">
         <v>1.40590522495295</v>
@@ -3478,10 +3525,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C89" t="n">
         <v>-0.754635366322773</v>
@@ -3498,10 +3545,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" t="n">
         <v>2.36125452706899</v>
@@ -3518,10 +3565,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" t="n">
         <v>0.870399666086046</v>
@@ -3538,10 +3585,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C92" t="n">
         <v>0.895455844968565</v>
@@ -3558,10 +3605,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" t="n">
         <v>-4.61676058910457</v>
@@ -3578,10 +3625,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" t="n">
         <v>0.799203815746664</v>
@@ -3598,10 +3645,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" t="n">
         <v>1.92058739859879</v>
@@ -3618,10 +3665,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" t="n">
         <v>-1.23996857640491</v>
@@ -3638,10 +3685,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C97" t="n">
         <v>1.48546129242273</v>
@@ -3658,9 +3705,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98"/>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
+      </c>
       <c r="C98" t="n">
         <v>-0.786229998589077</v>
       </c>
@@ -3676,10 +3725,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C99" t="n">
         <v>0.557232016113206</v>
@@ -3696,10 +3745,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C100" t="n">
         <v>-0.533126155190677</v>
@@ -3716,10 +3765,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C101" t="n">
         <v>-0.972190313664649</v>
@@ -3736,10 +3785,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C102" t="n">
         <v>1.06117242841581</v>
@@ -3756,10 +3805,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C103" t="n">
         <v>1.06907622123026</v>
@@ -3776,10 +3825,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C104" t="n">
         <v>-0.952099966747085</v>
@@ -3796,10 +3845,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C105" t="n">
         <v>-0.944592168317396</v>
@@ -3816,9 +3865,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>211</v>
-      </c>
-      <c r="B106"/>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
       <c r="C106" t="n">
         <v>0.556975210419086</v>
       </c>
@@ -3834,10 +3885,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C107" t="n">
         <v>-1.27814793437791</v>
@@ -3854,10 +3905,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C108" t="n">
         <v>0.849426920152997</v>
@@ -3874,10 +3925,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C109" t="n">
         <v>0.324560250540146</v>
@@ -3894,10 +3945,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C110" t="n">
         <v>0.247827216770585</v>
@@ -3914,9 +3965,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>220</v>
-      </c>
-      <c r="B111"/>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
       <c r="C111" t="n">
         <v>-1.69739697662117</v>
       </c>
@@ -3932,10 +3985,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C112" t="n">
         <v>-1.48143729062431</v>
@@ -3952,10 +4005,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C113" t="n">
         <v>-1.16398814556497</v>
@@ -3972,10 +4025,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C114" t="n">
         <v>1.55631027264097</v>
@@ -3992,10 +4045,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C115" t="n">
         <v>1.77370137620798</v>
@@ -4012,10 +4065,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
         <v>2.03680595448071</v>
@@ -4032,10 +4085,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C117" t="n">
         <v>-2.75197276194976</v>
@@ -4052,10 +4105,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C118" t="n">
         <v>1.50175240018329</v>
@@ -4072,9 +4125,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119"/>
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
       <c r="C119" t="n">
         <v>0.798810940908777</v>
       </c>
@@ -4090,10 +4145,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C120" t="n">
         <v>-3.21610229703291</v>
@@ -4110,9 +4165,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>238</v>
-      </c>
-      <c r="B121"/>
+        <v>243</v>
+      </c>
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
       <c r="C121" t="n">
         <v>0.997382881577777</v>
       </c>
@@ -4128,10 +4185,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C122" t="n">
         <v>-0.530811165833367</v>
@@ -4148,9 +4205,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>241</v>
-      </c>
-      <c r="B123"/>
+        <v>247</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
       <c r="C123" t="n">
         <v>-0.513135963566558</v>
       </c>
@@ -4166,10 +4225,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C124" t="n">
         <v>-6.69899835936018</v>
@@ -4186,10 +4245,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C125" t="n">
         <v>-1.79242296037287</v>
@@ -4206,10 +4265,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C126" t="n">
         <v>1.55138327642678</v>
@@ -4226,10 +4285,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C127" t="n">
         <v>0.806265884972689</v>
@@ -4246,10 +4305,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C128" t="n">
         <v>-1.19844606383128</v>
@@ -4266,10 +4325,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C129" t="n">
         <v>-1.2606232039023</v>
@@ -4286,10 +4345,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C130" t="n">
         <v>0.839015532906707</v>
@@ -4306,10 +4365,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C131" t="n">
         <v>-0.606061358732771</v>
@@ -4326,10 +4385,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C132" t="n">
         <v>0.404318294530687</v>
@@ -4346,10 +4405,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="C133" t="n">
         <v>-0.685772071726188</v>
@@ -4366,10 +4425,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C134" t="n">
         <v>-2.40691288169455</v>
@@ -4386,10 +4445,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C135" t="n">
         <v>0.92615239362841</v>
@@ -4406,10 +4465,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C136" t="n">
         <v>1.37258840796814</v>
@@ -4426,10 +4485,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C137" t="n">
         <v>1.07177814243919</v>
@@ -4446,10 +4505,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C138" t="n">
         <v>-1.32445182974368</v>
@@ -4466,10 +4525,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="C139" t="n">
         <v>0.576342432814563</v>
@@ -4486,10 +4545,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C140" t="n">
         <v>-0.612222874335602</v>
@@ -4506,10 +4565,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C141" t="n">
         <v>-2.80270999699887</v>
@@ -4526,9 +4585,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>278</v>
-      </c>
-      <c r="B142"/>
+        <v>285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>286</v>
+      </c>
       <c r="C142" t="n">
         <v>0.934162966980285</v>
       </c>
@@ -4544,9 +4605,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>279</v>
-      </c>
-      <c r="B143"/>
+        <v>287</v>
+      </c>
+      <c r="B143" t="s">
+        <v>288</v>
+      </c>
       <c r="C143" t="n">
         <v>-1.56779012038351</v>
       </c>
@@ -4562,10 +4625,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C144" t="n">
         <v>1.57718125028349</v>
@@ -4582,10 +4645,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C145" t="n">
         <v>1.31860377114517</v>
@@ -4602,10 +4665,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C146" t="n">
         <v>0.510656821523688</v>
@@ -4622,9 +4685,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>286</v>
-      </c>
-      <c r="B147"/>
+        <v>295</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
       <c r="C147" t="n">
         <v>1.12179275874268</v>
       </c>
@@ -4640,10 +4705,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C148" t="n">
         <v>-1.05076196267928</v>
@@ -4660,10 +4725,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C149" t="n">
         <v>-1.66728361686726</v>
@@ -4680,10 +4745,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B150" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C150" t="n">
         <v>-1.14605088013774</v>
@@ -4700,10 +4765,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B151" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C151" t="n">
         <v>0.786909702893143</v>
@@ -4720,10 +4785,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C152" t="n">
         <v>1.63644122476534</v>
@@ -4740,10 +4805,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C153" t="n">
         <v>0.920820240594273</v>
@@ -4760,10 +4825,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C154" t="n">
         <v>-0.467606466939304</v>
@@ -4780,7 +4845,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B155"/>
       <c r="C155" t="n">
@@ -4798,10 +4863,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C156" t="n">
         <v>-1.3310413410649</v>
@@ -4818,10 +4883,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B157" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C157" t="n">
         <v>1.6869291347965</v>
@@ -4838,10 +4903,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B158" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C158" t="n">
         <v>-4.28512643123527</v>
@@ -4858,10 +4923,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C159" t="n">
         <v>1.75999878479768</v>
@@ -4878,10 +4943,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B160" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C160" t="n">
         <v>-1.98620630506788</v>
@@ -4898,10 +4963,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B161" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C161" t="n">
         <v>-0.905363192563491</v>
@@ -4918,10 +4983,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B162" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C162" t="n">
         <v>-2.12311522202932</v>
@@ -4938,10 +5003,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B163" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C163" t="n">
         <v>-2.60260349922323</v>
@@ -4958,10 +5023,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C164" t="n">
         <v>-0.955161609717123</v>
@@ -4978,10 +5043,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B165" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C165" t="n">
         <v>1.48583054453122</v>
@@ -4998,10 +5063,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B166" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C166" t="n">
         <v>0.405074932429518</v>
@@ -5018,10 +5083,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C167" t="n">
         <v>2.17657233754747</v>
@@ -5038,10 +5103,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C168" t="n">
         <v>-0.706487783659375</v>
@@ -5058,10 +5123,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B169" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C169" t="n">
         <v>-2.17558547813634</v>
@@ -5078,10 +5143,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B170" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C170" t="n">
         <v>-0.828933869682563</v>
@@ -5098,10 +5163,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B171" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C171" t="n">
         <v>-1.93329278297428</v>
@@ -5118,10 +5183,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B172" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C172" t="n">
         <v>-1.2088762331349</v>
@@ -5138,10 +5203,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B173" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C173" t="n">
         <v>-1.45130063021787</v>
@@ -5158,10 +5223,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C174" t="n">
         <v>-2.53440660661669</v>
@@ -5178,10 +5243,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B175" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C175" t="n">
         <v>5.81652421168838</v>
@@ -5198,10 +5263,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B176" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C176" t="n">
         <v>0.706672926106518</v>
@@ -5218,10 +5283,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B177" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C177" t="n">
         <v>-0.512803144503858</v>
@@ -5238,7 +5303,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="n">
@@ -5256,7 +5321,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B179"/>
       <c r="C179" t="n">
@@ -5274,10 +5339,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C180" t="n">
         <v>-0.42831721815437</v>
@@ -5294,10 +5359,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C181" t="n">
         <v>-1.2366911823425</v>
@@ -5314,10 +5379,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C182" t="n">
         <v>-1.33034251658449</v>
@@ -5334,10 +5399,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C183" t="n">
         <v>-1.36584398667109</v>
@@ -5354,9 +5419,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184"/>
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
       <c r="C184" t="n">
         <v>0.722690936329106</v>
       </c>
@@ -5372,9 +5439,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>357</v>
-      </c>
-      <c r="B185"/>
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
       <c r="C185" t="n">
         <v>1.23508983211077</v>
       </c>
@@ -5390,10 +5459,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C186" t="n">
         <v>-1.30288420453366</v>
@@ -5410,10 +5479,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B187" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C187" t="n">
         <v>0.733211296433333</v>
@@ -5430,10 +5499,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B188" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C188" t="n">
         <v>1.64629175888099</v>
@@ -5450,10 +5519,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B189" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C189" t="n">
         <v>0.743060168340849</v>
@@ -5470,10 +5539,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B190" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C190" t="n">
         <v>-0.667941958706469</v>
@@ -5490,10 +5559,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B191" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C191" t="n">
         <v>0.520245168665732</v>
@@ -5510,10 +5579,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B192" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C192" t="n">
         <v>2.83460491939856</v>
@@ -5530,10 +5599,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B193" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C193" t="n">
         <v>-3.2959812265164</v>
@@ -5550,10 +5619,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B194" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C194" t="n">
         <v>3.59413377170023</v>
@@ -5570,10 +5639,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B195" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="C195" t="n">
         <v>6.57045356184592</v>
@@ -5590,10 +5659,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B196" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C196" t="n">
         <v>0.942501604210254</v>
@@ -5610,10 +5679,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B197" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C197" t="n">
         <v>1.74538100313696</v>
@@ -5630,10 +5699,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B198" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C198" t="n">
         <v>0.407722562798184</v>
@@ -5650,10 +5719,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B199" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C199" t="n">
         <v>1.45924786909843</v>
@@ -5670,10 +5739,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B200" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C200" t="n">
         <v>0.847599275961949</v>
@@ -5690,10 +5759,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B201" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C201" t="n">
         <v>-0.989868044285986</v>
@@ -5710,10 +5779,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B202" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C202" t="n">
         <v>-0.778062375437871</v>
@@ -5730,10 +5799,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C203" t="n">
         <v>1.51607706903508</v>
@@ -5750,10 +5819,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B204" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C204" t="n">
         <v>-1.66355278982988</v>
@@ -5770,10 +5839,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B205" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="C205" t="n">
         <v>2.43044104598714</v>
@@ -5790,10 +5859,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B206" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C206" t="n">
         <v>0.363402587933388</v>
@@ -5810,10 +5879,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B207" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C207" t="n">
         <v>1.24765209204092</v>
@@ -5830,10 +5899,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B208" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C208" t="n">
         <v>0.346222843561043</v>
@@ -5850,10 +5919,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B209" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C209" t="n">
         <v>0.780165737386997</v>
@@ -5870,10 +5939,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B210" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C210" t="n">
         <v>1.82451598474209</v>
@@ -5890,10 +5959,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B211" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C211" t="n">
         <v>1.30435362319797</v>
@@ -5910,10 +5979,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C212" t="n">
         <v>1.84320736393402</v>
@@ -5930,10 +5999,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C213" t="n">
         <v>0.634614368089494</v>
@@ -5950,10 +6019,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C214" t="n">
         <v>-2.33928232923451</v>
@@ -5970,10 +6039,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C215" t="n">
         <v>0.576311887917187</v>
@@ -5990,10 +6059,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B216" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C216" t="n">
         <v>-1.23028894234223</v>
@@ -6010,10 +6079,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C217" t="n">
         <v>-4.76889234736232</v>
@@ -6030,10 +6099,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C218" t="n">
         <v>-1.30109533589929</v>
@@ -6050,10 +6119,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B219" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C219" t="n">
         <v>0.402803198733881</v>
@@ -6070,10 +6139,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="C220" t="n">
         <v>-1.31855265860738</v>
@@ -6090,10 +6159,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C221" t="n">
         <v>0.750290080959326</v>
@@ -6110,9 +6179,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>430</v>
-      </c>
-      <c r="B222"/>
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
       <c r="C222" t="n">
         <v>1.02080834114593</v>
       </c>
@@ -6128,9 +6199,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>431</v>
-      </c>
-      <c r="B223"/>
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
       <c r="C223" t="n">
         <v>0.888435659284912</v>
       </c>
@@ -6146,10 +6219,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B224" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="C224" t="n">
         <v>-0.756421725299747</v>
@@ -6166,10 +6239,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B225" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="C225" t="n">
         <v>-0.472729396946939</v>
@@ -6186,9 +6259,11 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>436</v>
-      </c>
-      <c r="B226"/>
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
       <c r="C226" t="n">
         <v>1.88365445659178</v>
       </c>
@@ -6204,10 +6279,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="B227" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="C227" t="n">
         <v>-1.54984038640542</v>
@@ -6224,10 +6299,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="B228" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="C228" t="n">
         <v>0.959589648557969</v>
@@ -6244,10 +6319,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B229" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="C229" t="n">
         <v>1.00397420393387</v>
@@ -6264,10 +6339,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="B230" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C230" t="n">
         <v>1.0113392585632</v>
@@ -6284,10 +6359,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C231" t="n">
         <v>1.38601697711234</v>
@@ -6304,7 +6379,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B232"/>
       <c r="C232" t="n">
@@ -6322,7 +6397,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B233"/>
       <c r="C233" t="n">
@@ -6340,10 +6415,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="B234" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C234" t="n">
         <v>0.95064060587424</v>
@@ -6360,10 +6435,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="C235" t="n">
         <v>0.231410426563581</v>
@@ -6380,10 +6455,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C236" t="n">
         <v>-0.898945930119845</v>
@@ -6400,10 +6475,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B237" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="C237" t="n">
         <v>0.60704513031146</v>
@@ -6420,10 +6495,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B238" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C238" t="n">
         <v>-1.23411581620599</v>
